--- a/helpfiles/tentamenuitslag_R - inholland.xlsx
+++ b/helpfiles/tentamenuitslag_R - inholland.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\vu-toetsanalyse\helpfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vu-toetsanalyse-master\helpfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -128,6 +128,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -201,7 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -222,7 +223,6 @@
       <alignment textRotation="30"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -230,12 +230,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment textRotation="30"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Euro" xfId="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -249,9 +269,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -289,7 +309,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -361,7 +381,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -541,7 +561,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1970,7 +1990,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="15"/>
+      <c r="A141" s="14"/>
       <c r="E141" s="3" t="str">
         <f>VLOOKUP(D141,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -1981,7 +2001,7 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="15"/>
+      <c r="A142" s="14"/>
       <c r="E142" s="3" t="str">
         <f>VLOOKUP(D142,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -1992,7 +2012,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="15"/>
+      <c r="A143" s="14"/>
       <c r="E143" s="3" t="str">
         <f>VLOOKUP(D143,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2003,7 +2023,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="15"/>
+      <c r="A144" s="14"/>
       <c r="E144" s="3" t="str">
         <f>VLOOKUP(D144,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2014,7 +2034,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="15"/>
+      <c r="A145" s="14"/>
       <c r="E145" s="3" t="str">
         <f>VLOOKUP(D145,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2025,7 +2045,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="15"/>
+      <c r="A146" s="14"/>
       <c r="E146" s="3" t="str">
         <f>VLOOKUP(D146,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2036,7 +2056,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="15"/>
+      <c r="A147" s="14"/>
       <c r="E147" s="3" t="str">
         <f>VLOOKUP(D147,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2047,7 +2067,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="15"/>
+      <c r="A148" s="14"/>
       <c r="E148" s="3" t="str">
         <f>VLOOKUP(D148,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2058,7 +2078,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="15"/>
+      <c r="A149" s="14"/>
       <c r="E149" s="3" t="str">
         <f>VLOOKUP(D149,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2069,7 +2089,7 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="15"/>
+      <c r="A150" s="14"/>
       <c r="E150" s="3" t="str">
         <f>VLOOKUP(D150,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2080,7 +2100,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="15"/>
+      <c r="A151" s="14"/>
       <c r="E151" s="3" t="str">
         <f>VLOOKUP(D151,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2091,7 +2111,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="15"/>
+      <c r="A152" s="14"/>
       <c r="E152" s="3" t="str">
         <f>VLOOKUP(D152,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2102,7 +2122,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="15"/>
+      <c r="A153" s="14"/>
       <c r="E153" s="3" t="str">
         <f>VLOOKUP(D153,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2113,7 +2133,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="15"/>
+      <c r="A154" s="14"/>
       <c r="E154" s="3" t="str">
         <f>VLOOKUP(D154,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2124,7 +2144,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="15"/>
+      <c r="A155" s="14"/>
       <c r="E155" s="3" t="str">
         <f>VLOOKUP(D155,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2135,7 +2155,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="15"/>
+      <c r="A156" s="14"/>
       <c r="E156" s="3" t="str">
         <f>VLOOKUP(D156,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2146,7 +2166,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="15"/>
+      <c r="A157" s="14"/>
       <c r="E157" s="3" t="str">
         <f>VLOOKUP(D157,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2157,7 +2177,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="15"/>
+      <c r="A158" s="14"/>
       <c r="E158" s="3" t="str">
         <f>VLOOKUP(D158,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2168,7 +2188,7 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="15"/>
+      <c r="A159" s="14"/>
       <c r="E159" s="3" t="str">
         <f>VLOOKUP(D159,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2179,7 +2199,7 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="15"/>
+      <c r="A160" s="14"/>
       <c r="E160" s="3" t="str">
         <f>VLOOKUP(D160,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2190,7 +2210,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="15"/>
+      <c r="A161" s="14"/>
       <c r="E161" s="3" t="str">
         <f>VLOOKUP(D161,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2201,7 +2221,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="15"/>
+      <c r="A162" s="14"/>
       <c r="E162" s="3" t="str">
         <f>VLOOKUP(D162,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2212,7 +2232,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="15"/>
+      <c r="A163" s="14"/>
       <c r="E163" s="3" t="str">
         <f>VLOOKUP(D163,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2223,7 +2243,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="15"/>
+      <c r="A164" s="14"/>
       <c r="E164" s="3" t="str">
         <f>VLOOKUP(D164,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2234,7 +2254,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="15"/>
+      <c r="A165" s="14"/>
       <c r="E165" s="3" t="str">
         <f>VLOOKUP(D165,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2245,7 +2265,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="15"/>
+      <c r="A166" s="14"/>
       <c r="E166" s="3" t="str">
         <f>VLOOKUP(D166,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2256,7 +2276,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="15"/>
+      <c r="A167" s="14"/>
       <c r="E167" s="3" t="str">
         <f>VLOOKUP(D167,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2267,7 +2287,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="15"/>
+      <c r="A168" s="14"/>
       <c r="E168" s="3" t="str">
         <f>VLOOKUP(D168,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2278,7 +2298,7 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="15"/>
+      <c r="A169" s="14"/>
       <c r="E169" s="3" t="str">
         <f>VLOOKUP(D169,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2289,7 +2309,7 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="15"/>
+      <c r="A170" s="14"/>
       <c r="E170" s="3" t="str">
         <f>VLOOKUP(D170,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2300,7 +2320,7 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="15"/>
+      <c r="A171" s="14"/>
       <c r="E171" s="3" t="str">
         <f>VLOOKUP(D171,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2311,7 +2331,7 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="15"/>
+      <c r="A172" s="14"/>
       <c r="E172" s="3" t="str">
         <f>VLOOKUP(D172,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2322,7 +2342,7 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="15"/>
+      <c r="A173" s="14"/>
       <c r="E173" s="3" t="str">
         <f>VLOOKUP(D173,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2333,7 +2353,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="15"/>
+      <c r="A174" s="14"/>
       <c r="E174" s="3" t="str">
         <f>VLOOKUP(D174,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2344,7 +2364,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="15"/>
+      <c r="A175" s="14"/>
       <c r="E175" s="3" t="str">
         <f>VLOOKUP(D175,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2355,7 +2375,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="15"/>
+      <c r="A176" s="14"/>
       <c r="E176" s="3" t="str">
         <f>VLOOKUP(D176,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2366,7 +2386,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="15"/>
+      <c r="A177" s="14"/>
       <c r="E177" s="3" t="str">
         <f>VLOOKUP(D177,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2377,7 +2397,7 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" s="15"/>
+      <c r="A178" s="14"/>
       <c r="E178" s="3" t="str">
         <f>VLOOKUP(D178,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2388,7 +2408,7 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="15"/>
+      <c r="A179" s="14"/>
       <c r="E179" s="3" t="str">
         <f>VLOOKUP(D179,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2399,7 +2419,7 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" s="15"/>
+      <c r="A180" s="14"/>
       <c r="E180" s="3" t="str">
         <f>VLOOKUP(D180,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2410,7 +2430,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="15"/>
+      <c r="A181" s="14"/>
       <c r="E181" s="3" t="str">
         <f>VLOOKUP(D181,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2421,7 +2441,7 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="15"/>
+      <c r="A182" s="14"/>
       <c r="E182" s="3" t="str">
         <f>VLOOKUP(D182,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2432,7 +2452,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="15"/>
+      <c r="A183" s="14"/>
       <c r="E183" s="3" t="str">
         <f>VLOOKUP(D183,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2443,7 +2463,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="15"/>
+      <c r="A184" s="14"/>
       <c r="E184" s="3" t="str">
         <f>VLOOKUP(D184,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2454,7 +2474,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="15"/>
+      <c r="A185" s="14"/>
       <c r="E185" s="3" t="str">
         <f>VLOOKUP(D185,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2465,7 +2485,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="15"/>
+      <c r="A186" s="14"/>
       <c r="E186" s="3" t="str">
         <f>VLOOKUP(D186,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2476,7 +2496,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="15"/>
+      <c r="A187" s="14"/>
       <c r="E187" s="3" t="str">
         <f>VLOOKUP(D187,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2487,7 +2507,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="15"/>
+      <c r="A188" s="14"/>
       <c r="E188" s="3" t="str">
         <f>VLOOKUP(D188,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2498,7 +2518,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="15"/>
+      <c r="A189" s="14"/>
       <c r="E189" s="3" t="str">
         <f>VLOOKUP(D189,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2509,7 +2529,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="15"/>
+      <c r="A190" s="14"/>
       <c r="E190" s="3" t="str">
         <f>VLOOKUP(D190,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2520,7 +2540,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="15"/>
+      <c r="A191" s="14"/>
       <c r="E191" s="3" t="str">
         <f>VLOOKUP(D191,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2531,7 +2551,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" s="15"/>
+      <c r="A192" s="14"/>
       <c r="E192" s="3" t="str">
         <f>VLOOKUP(D192,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2542,7 +2562,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" s="15"/>
+      <c r="A193" s="14"/>
       <c r="E193" s="3" t="str">
         <f>VLOOKUP(D193,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2553,7 +2573,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="15"/>
+      <c r="A194" s="14"/>
       <c r="E194" s="3" t="str">
         <f>VLOOKUP(D194,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2564,7 +2584,7 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="15"/>
+      <c r="A195" s="14"/>
       <c r="E195" s="3" t="str">
         <f>VLOOKUP(D195,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2575,7 +2595,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="15"/>
+      <c r="A196" s="14"/>
       <c r="E196" s="3" t="str">
         <f>VLOOKUP(D196,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2586,7 +2606,7 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="15"/>
+      <c r="A197" s="14"/>
       <c r="E197" s="3" t="str">
         <f>VLOOKUP(D197,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2597,7 +2617,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" s="15"/>
+      <c r="A198" s="14"/>
       <c r="E198" s="3" t="str">
         <f>VLOOKUP(D198,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2608,7 +2628,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="15"/>
+      <c r="A199" s="14"/>
       <c r="E199" s="3" t="str">
         <f>VLOOKUP(D199,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2619,7 +2639,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" s="15"/>
+      <c r="A200" s="14"/>
       <c r="E200" s="3" t="str">
         <f>VLOOKUP(D200,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2630,7 +2650,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="15"/>
+      <c r="A201" s="14"/>
       <c r="E201" s="3" t="str">
         <f>VLOOKUP(D201,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2641,7 +2661,7 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" s="15"/>
+      <c r="A202" s="14"/>
       <c r="E202" s="3" t="str">
         <f>VLOOKUP(D202,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2652,7 +2672,7 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" s="15"/>
+      <c r="A203" s="14"/>
       <c r="E203" s="3" t="str">
         <f>VLOOKUP(D203,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2663,7 +2683,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" s="15"/>
+      <c r="A204" s="14"/>
       <c r="E204" s="3" t="str">
         <f>VLOOKUP(D204,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2674,7 +2694,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" s="15"/>
+      <c r="A205" s="14"/>
       <c r="E205" s="3" t="str">
         <f>VLOOKUP(D205,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2685,7 +2705,7 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" s="15"/>
+      <c r="A206" s="14"/>
       <c r="E206" s="3" t="str">
         <f>VLOOKUP(D206,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2696,7 +2716,7 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207" s="15"/>
+      <c r="A207" s="14"/>
       <c r="E207" s="3" t="str">
         <f>VLOOKUP(D207,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2707,7 +2727,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" s="15"/>
+      <c r="A208" s="14"/>
       <c r="E208" s="3" t="str">
         <f>VLOOKUP(D208,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2718,7 +2738,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" s="15"/>
+      <c r="A209" s="14"/>
       <c r="E209" s="3" t="str">
         <f>VLOOKUP(D209,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2729,7 +2749,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" s="15"/>
+      <c r="A210" s="14"/>
       <c r="E210" s="3" t="str">
         <f>VLOOKUP(D210,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2740,7 +2760,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" s="15"/>
+      <c r="A211" s="14"/>
       <c r="E211" s="3" t="str">
         <f>VLOOKUP(D211,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2751,7 +2771,7 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" s="15"/>
+      <c r="A212" s="14"/>
       <c r="E212" s="3" t="str">
         <f>VLOOKUP(D212,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2762,7 +2782,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" s="15"/>
+      <c r="A213" s="14"/>
       <c r="E213" s="3" t="str">
         <f>VLOOKUP(D213,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2773,7 +2793,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" s="15"/>
+      <c r="A214" s="14"/>
       <c r="E214" s="3" t="str">
         <f>VLOOKUP(D214,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2784,7 +2804,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" s="15"/>
+      <c r="A215" s="14"/>
       <c r="E215" s="3" t="str">
         <f>VLOOKUP(D215,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2795,7 +2815,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" s="15"/>
+      <c r="A216" s="14"/>
       <c r="E216" s="3" t="str">
         <f>VLOOKUP(D216,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2806,7 +2826,7 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" s="15"/>
+      <c r="A217" s="14"/>
       <c r="E217" s="3" t="str">
         <f>VLOOKUP(D217,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2817,7 +2837,7 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" s="15"/>
+      <c r="A218" s="14"/>
       <c r="E218" s="3" t="str">
         <f>VLOOKUP(D218,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2828,7 +2848,7 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" s="15"/>
+      <c r="A219" s="14"/>
       <c r="E219" s="3" t="str">
         <f>VLOOKUP(D219,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2839,7 +2859,7 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" s="15"/>
+      <c r="A220" s="14"/>
       <c r="E220" s="3" t="str">
         <f>VLOOKUP(D220,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2850,7 +2870,7 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" s="15"/>
+      <c r="A221" s="14"/>
       <c r="E221" s="3" t="str">
         <f>VLOOKUP(D221,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2861,7 +2881,7 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" s="15"/>
+      <c r="A222" s="14"/>
       <c r="E222" s="3" t="str">
         <f>VLOOKUP(D222,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2872,7 +2892,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" s="15"/>
+      <c r="A223" s="14"/>
       <c r="E223" s="3" t="str">
         <f>VLOOKUP(D223,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2883,7 +2903,7 @@
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" s="15"/>
+      <c r="A224" s="14"/>
       <c r="E224" s="3" t="str">
         <f>VLOOKUP(D224,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2894,7 +2914,7 @@
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A225" s="15"/>
+      <c r="A225" s="14"/>
       <c r="E225" s="3" t="str">
         <f>VLOOKUP(D225,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2905,7 +2925,7 @@
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" s="15"/>
+      <c r="A226" s="14"/>
       <c r="E226" s="3" t="str">
         <f>VLOOKUP(D226,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2916,7 +2936,7 @@
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" s="15"/>
+      <c r="A227" s="14"/>
       <c r="E227" s="3" t="str">
         <f>VLOOKUP(D227,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2927,7 +2947,7 @@
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228" s="15"/>
+      <c r="A228" s="14"/>
       <c r="E228" s="3" t="str">
         <f>VLOOKUP(D228,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2938,7 +2958,7 @@
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" s="15"/>
+      <c r="A229" s="14"/>
       <c r="E229" s="3" t="str">
         <f>VLOOKUP(D229,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2949,7 +2969,7 @@
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" s="15"/>
+      <c r="A230" s="14"/>
       <c r="E230" s="3" t="str">
         <f>VLOOKUP(D230,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2960,7 +2980,7 @@
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231" s="15"/>
+      <c r="A231" s="14"/>
       <c r="E231" s="3" t="str">
         <f>VLOOKUP(D231,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2971,7 +2991,7 @@
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232" s="15"/>
+      <c r="A232" s="14"/>
       <c r="E232" s="3" t="str">
         <f>VLOOKUP(D232,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2982,7 +3002,7 @@
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A233" s="15"/>
+      <c r="A233" s="14"/>
       <c r="E233" s="3" t="str">
         <f>VLOOKUP(D233,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2993,7 +3013,7 @@
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A234" s="15"/>
+      <c r="A234" s="14"/>
       <c r="E234" s="3" t="str">
         <f>VLOOKUP(D234,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3004,7 +3024,7 @@
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" s="15"/>
+      <c r="A235" s="14"/>
       <c r="E235" s="3" t="str">
         <f>VLOOKUP(D235,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3015,7 +3035,7 @@
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" s="15"/>
+      <c r="A236" s="14"/>
       <c r="E236" s="3" t="str">
         <f>VLOOKUP(D236,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3026,7 +3046,7 @@
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" s="15"/>
+      <c r="A237" s="14"/>
       <c r="E237" s="3" t="str">
         <f>VLOOKUP(D237,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3037,7 +3057,7 @@
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" s="15"/>
+      <c r="A238" s="14"/>
       <c r="E238" s="3" t="str">
         <f>VLOOKUP(D238,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3048,7 +3068,7 @@
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" s="15"/>
+      <c r="A239" s="14"/>
       <c r="E239" s="3" t="str">
         <f>VLOOKUP(D239,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3059,7 +3079,7 @@
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" s="15"/>
+      <c r="A240" s="14"/>
       <c r="E240" s="3" t="str">
         <f>VLOOKUP(D240,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3070,7 +3090,7 @@
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" s="15"/>
+      <c r="A241" s="14"/>
       <c r="E241" s="3" t="str">
         <f>VLOOKUP(D241,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3081,7 +3101,7 @@
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A242" s="15"/>
+      <c r="A242" s="14"/>
       <c r="E242" s="3" t="str">
         <f>VLOOKUP(D242,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3092,7 +3112,7 @@
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A243" s="15"/>
+      <c r="A243" s="14"/>
       <c r="E243" s="3" t="str">
         <f>VLOOKUP(D243,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3103,7 +3123,7 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A244" s="15"/>
+      <c r="A244" s="14"/>
       <c r="E244" s="3" t="str">
         <f>VLOOKUP(D244,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3114,7 +3134,7 @@
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A245" s="15"/>
+      <c r="A245" s="14"/>
       <c r="E245" s="3" t="str">
         <f>VLOOKUP(D245,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3125,7 +3145,7 @@
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A246" s="15"/>
+      <c r="A246" s="14"/>
       <c r="E246" s="3" t="str">
         <f>VLOOKUP(D246,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3136,9 +3156,9 @@
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A247" s="15"/>
-      <c r="B247" s="15"/>
-      <c r="C247" s="15"/>
+      <c r="A247" s="14"/>
+      <c r="B247" s="14"/>
+      <c r="C247" s="14"/>
       <c r="E247" s="3" t="str">
         <f>VLOOKUP(D247,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3149,9 +3169,9 @@
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A248" s="15"/>
-      <c r="B248" s="15"/>
-      <c r="C248" s="15"/>
+      <c r="A248" s="14"/>
+      <c r="B248" s="14"/>
+      <c r="C248" s="14"/>
       <c r="E248" s="3" t="str">
         <f>VLOOKUP(D248,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3162,9 +3182,9 @@
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A249" s="15"/>
-      <c r="B249" s="15"/>
-      <c r="C249" s="15"/>
+      <c r="A249" s="14"/>
+      <c r="B249" s="14"/>
+      <c r="C249" s="14"/>
       <c r="E249" s="3" t="str">
         <f>VLOOKUP(D249,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3175,9 +3195,9 @@
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A250" s="15"/>
-      <c r="B250" s="15"/>
-      <c r="C250" s="15"/>
+      <c r="A250" s="14"/>
+      <c r="B250" s="14"/>
+      <c r="C250" s="14"/>
       <c r="E250" s="3" t="str">
         <f>VLOOKUP(D250,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3188,9 +3208,9 @@
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A251" s="15"/>
-      <c r="B251" s="15"/>
-      <c r="C251" s="15"/>
+      <c r="A251" s="14"/>
+      <c r="B251" s="14"/>
+      <c r="C251" s="14"/>
       <c r="E251" s="3" t="str">
         <f>VLOOKUP(D251,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3201,9 +3221,9 @@
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A252" s="15"/>
-      <c r="B252" s="15"/>
-      <c r="C252" s="15"/>
+      <c r="A252" s="14"/>
+      <c r="B252" s="14"/>
+      <c r="C252" s="14"/>
       <c r="E252" s="3" t="str">
         <f>VLOOKUP(D252,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3214,9 +3234,9 @@
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A253" s="15"/>
-      <c r="B253" s="15"/>
-      <c r="C253" s="15"/>
+      <c r="A253" s="14"/>
+      <c r="B253" s="14"/>
+      <c r="C253" s="14"/>
       <c r="E253" s="3" t="str">
         <f>VLOOKUP(D253,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3227,9 +3247,9 @@
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A254" s="15"/>
-      <c r="B254" s="15"/>
-      <c r="C254" s="15"/>
+      <c r="A254" s="14"/>
+      <c r="B254" s="14"/>
+      <c r="C254" s="14"/>
       <c r="E254" s="3" t="str">
         <f>VLOOKUP(D254,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3240,9 +3260,9 @@
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A255" s="15"/>
-      <c r="B255" s="15"/>
-      <c r="C255" s="15"/>
+      <c r="A255" s="14"/>
+      <c r="B255" s="14"/>
+      <c r="C255" s="14"/>
       <c r="E255" s="3" t="str">
         <f>VLOOKUP(D255,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3253,9 +3273,9 @@
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A256" s="15"/>
-      <c r="B256" s="15"/>
-      <c r="C256" s="15"/>
+      <c r="A256" s="14"/>
+      <c r="B256" s="14"/>
+      <c r="C256" s="14"/>
       <c r="E256" s="3" t="str">
         <f>VLOOKUP(D256,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3266,9 +3286,9 @@
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A257" s="15"/>
-      <c r="B257" s="15"/>
-      <c r="C257" s="15"/>
+      <c r="A257" s="14"/>
+      <c r="B257" s="14"/>
+      <c r="C257" s="14"/>
       <c r="E257" s="3" t="str">
         <f>VLOOKUP(D257,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3279,9 +3299,9 @@
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A258" s="15"/>
-      <c r="B258" s="15"/>
-      <c r="C258" s="15"/>
+      <c r="A258" s="14"/>
+      <c r="B258" s="14"/>
+      <c r="C258" s="14"/>
       <c r="E258" s="3" t="str">
         <f>VLOOKUP(D258,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3292,9 +3312,9 @@
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A259" s="15"/>
-      <c r="B259" s="15"/>
-      <c r="C259" s="15"/>
+      <c r="A259" s="14"/>
+      <c r="B259" s="14"/>
+      <c r="C259" s="14"/>
       <c r="E259" s="3" t="str">
         <f>VLOOKUP(D259,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3305,9 +3325,9 @@
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A260" s="15"/>
-      <c r="B260" s="15"/>
-      <c r="C260" s="15"/>
+      <c r="A260" s="14"/>
+      <c r="B260" s="14"/>
+      <c r="C260" s="14"/>
       <c r="E260" s="3" t="str">
         <f>VLOOKUP(D260,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3318,9 +3338,9 @@
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A261" s="15"/>
-      <c r="B261" s="15"/>
-      <c r="C261" s="15"/>
+      <c r="A261" s="14"/>
+      <c r="B261" s="14"/>
+      <c r="C261" s="14"/>
       <c r="E261" s="3" t="str">
         <f>VLOOKUP(D261,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3331,9 +3351,9 @@
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A262" s="15"/>
-      <c r="B262" s="15"/>
-      <c r="C262" s="15"/>
+      <c r="A262" s="14"/>
+      <c r="B262" s="14"/>
+      <c r="C262" s="14"/>
       <c r="E262" s="3" t="str">
         <f>VLOOKUP(D262,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3344,9 +3364,9 @@
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A263" s="15"/>
-      <c r="B263" s="15"/>
-      <c r="C263" s="15"/>
+      <c r="A263" s="14"/>
+      <c r="B263" s="14"/>
+      <c r="C263" s="14"/>
       <c r="E263" s="3" t="str">
         <f>VLOOKUP(D263,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3357,9 +3377,9 @@
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A264" s="15"/>
-      <c r="B264" s="15"/>
-      <c r="C264" s="15"/>
+      <c r="A264" s="14"/>
+      <c r="B264" s="14"/>
+      <c r="C264" s="14"/>
       <c r="E264" s="3" t="str">
         <f>VLOOKUP(D264,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3370,9 +3390,9 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A265" s="15"/>
-      <c r="B265" s="15"/>
-      <c r="C265" s="15"/>
+      <c r="A265" s="14"/>
+      <c r="B265" s="14"/>
+      <c r="C265" s="14"/>
       <c r="E265" s="3" t="str">
         <f>VLOOKUP(D265,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3383,9 +3403,9 @@
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A266" s="15"/>
-      <c r="B266" s="15"/>
-      <c r="C266" s="15"/>
+      <c r="A266" s="14"/>
+      <c r="B266" s="14"/>
+      <c r="C266" s="14"/>
       <c r="E266" s="3" t="str">
         <f>VLOOKUP(D266,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3396,9 +3416,9 @@
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A267" s="15"/>
-      <c r="B267" s="15"/>
-      <c r="C267" s="15"/>
+      <c r="A267" s="14"/>
+      <c r="B267" s="14"/>
+      <c r="C267" s="14"/>
       <c r="E267" s="3" t="str">
         <f>VLOOKUP(D267,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3409,9 +3429,9 @@
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A268" s="15"/>
-      <c r="B268" s="15"/>
-      <c r="C268" s="15"/>
+      <c r="A268" s="14"/>
+      <c r="B268" s="14"/>
+      <c r="C268" s="14"/>
       <c r="E268" s="3" t="str">
         <f>VLOOKUP(D268,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3422,9 +3442,9 @@
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A269" s="15"/>
-      <c r="B269" s="15"/>
-      <c r="C269" s="15"/>
+      <c r="A269" s="14"/>
+      <c r="B269" s="14"/>
+      <c r="C269" s="14"/>
       <c r="E269" s="3" t="str">
         <f>VLOOKUP(D269,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3435,9 +3455,9 @@
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A270" s="15"/>
-      <c r="B270" s="15"/>
-      <c r="C270" s="15"/>
+      <c r="A270" s="14"/>
+      <c r="B270" s="14"/>
+      <c r="C270" s="14"/>
       <c r="E270" s="3" t="str">
         <f>VLOOKUP(D270,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3448,9 +3468,9 @@
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A271" s="15"/>
-      <c r="B271" s="15"/>
-      <c r="C271" s="15"/>
+      <c r="A271" s="14"/>
+      <c r="B271" s="14"/>
+      <c r="C271" s="14"/>
       <c r="E271" s="3" t="str">
         <f>VLOOKUP(D271,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3461,9 +3481,9 @@
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A272" s="15"/>
-      <c r="B272" s="15"/>
-      <c r="C272" s="15"/>
+      <c r="A272" s="14"/>
+      <c r="B272" s="14"/>
+      <c r="C272" s="14"/>
       <c r="E272" s="3" t="str">
         <f>VLOOKUP(D272,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3474,9 +3494,9 @@
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A273" s="15"/>
-      <c r="B273" s="15"/>
-      <c r="C273" s="15"/>
+      <c r="A273" s="14"/>
+      <c r="B273" s="14"/>
+      <c r="C273" s="14"/>
       <c r="E273" s="3" t="str">
         <f>VLOOKUP(D273,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3487,9 +3507,9 @@
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A274" s="15"/>
-      <c r="B274" s="15"/>
-      <c r="C274" s="15"/>
+      <c r="A274" s="14"/>
+      <c r="B274" s="14"/>
+      <c r="C274" s="14"/>
       <c r="E274" s="3" t="str">
         <f>VLOOKUP(D274,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3500,9 +3520,9 @@
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A275" s="15"/>
-      <c r="B275" s="15"/>
-      <c r="C275" s="15"/>
+      <c r="A275" s="14"/>
+      <c r="B275" s="14"/>
+      <c r="C275" s="14"/>
       <c r="E275" s="3" t="str">
         <f>VLOOKUP(D275,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3513,9 +3533,9 @@
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A276" s="15"/>
-      <c r="B276" s="15"/>
-      <c r="C276" s="15"/>
+      <c r="A276" s="14"/>
+      <c r="B276" s="14"/>
+      <c r="C276" s="14"/>
       <c r="E276" s="3" t="str">
         <f>VLOOKUP(D276,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3526,9 +3546,9 @@
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A277" s="15"/>
-      <c r="B277" s="15"/>
-      <c r="C277" s="15"/>
+      <c r="A277" s="14"/>
+      <c r="B277" s="14"/>
+      <c r="C277" s="14"/>
       <c r="E277" s="3" t="str">
         <f>VLOOKUP(D277,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3539,9 +3559,9 @@
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A278" s="15"/>
-      <c r="B278" s="15"/>
-      <c r="C278" s="15"/>
+      <c r="A278" s="14"/>
+      <c r="B278" s="14"/>
+      <c r="C278" s="14"/>
       <c r="E278" s="3" t="str">
         <f>VLOOKUP(D278,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3552,9 +3572,9 @@
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A279" s="15"/>
-      <c r="B279" s="15"/>
-      <c r="C279" s="15"/>
+      <c r="A279" s="14"/>
+      <c r="B279" s="14"/>
+      <c r="C279" s="14"/>
       <c r="E279" s="3" t="str">
         <f>VLOOKUP(D279,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3565,9 +3585,9 @@
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A280" s="15"/>
-      <c r="B280" s="15"/>
-      <c r="C280" s="15"/>
+      <c r="A280" s="14"/>
+      <c r="B280" s="14"/>
+      <c r="C280" s="14"/>
       <c r="E280" s="3" t="str">
         <f>VLOOKUP(D280,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3578,9 +3598,9 @@
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A281" s="15"/>
-      <c r="B281" s="15"/>
-      <c r="C281" s="15"/>
+      <c r="A281" s="14"/>
+      <c r="B281" s="14"/>
+      <c r="C281" s="14"/>
       <c r="E281" s="3" t="str">
         <f>VLOOKUP(D281,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3591,9 +3611,9 @@
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A282" s="15"/>
-      <c r="B282" s="15"/>
-      <c r="C282" s="15"/>
+      <c r="A282" s="14"/>
+      <c r="B282" s="14"/>
+      <c r="C282" s="14"/>
       <c r="E282" s="3" t="str">
         <f>VLOOKUP(D282,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3604,9 +3624,9 @@
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A283" s="15"/>
-      <c r="B283" s="15"/>
-      <c r="C283" s="15"/>
+      <c r="A283" s="14"/>
+      <c r="B283" s="14"/>
+      <c r="C283" s="14"/>
       <c r="E283" s="3" t="str">
         <f>VLOOKUP(D283,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3617,9 +3637,9 @@
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A284" s="15"/>
-      <c r="B284" s="15"/>
-      <c r="C284" s="15"/>
+      <c r="A284" s="14"/>
+      <c r="B284" s="14"/>
+      <c r="C284" s="14"/>
       <c r="E284" s="3" t="str">
         <f>VLOOKUP(D284,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3630,9 +3650,9 @@
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A285" s="15"/>
-      <c r="B285" s="15"/>
-      <c r="C285" s="15"/>
+      <c r="A285" s="14"/>
+      <c r="B285" s="14"/>
+      <c r="C285" s="14"/>
       <c r="E285" s="3" t="str">
         <f>VLOOKUP(D285,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3643,9 +3663,9 @@
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A286" s="15"/>
-      <c r="B286" s="15"/>
-      <c r="C286" s="15"/>
+      <c r="A286" s="14"/>
+      <c r="B286" s="14"/>
+      <c r="C286" s="14"/>
       <c r="E286" s="3" t="str">
         <f>VLOOKUP(D286,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3656,9 +3676,9 @@
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A287" s="15"/>
-      <c r="B287" s="15"/>
-      <c r="C287" s="15"/>
+      <c r="A287" s="14"/>
+      <c r="B287" s="14"/>
+      <c r="C287" s="14"/>
       <c r="E287" s="3" t="str">
         <f>VLOOKUP(D287,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3669,9 +3689,9 @@
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A288" s="15"/>
-      <c r="B288" s="15"/>
-      <c r="C288" s="15"/>
+      <c r="A288" s="14"/>
+      <c r="B288" s="14"/>
+      <c r="C288" s="14"/>
       <c r="E288" s="3" t="str">
         <f>VLOOKUP(D288,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3682,9 +3702,9 @@
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A289" s="15"/>
-      <c r="B289" s="15"/>
-      <c r="C289" s="15"/>
+      <c r="A289" s="14"/>
+      <c r="B289" s="14"/>
+      <c r="C289" s="14"/>
       <c r="E289" s="3" t="str">
         <f>VLOOKUP(D289,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3695,9 +3715,9 @@
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A290" s="15"/>
-      <c r="B290" s="15"/>
-      <c r="C290" s="15"/>
+      <c r="A290" s="14"/>
+      <c r="B290" s="14"/>
+      <c r="C290" s="14"/>
       <c r="E290" s="3" t="str">
         <f>VLOOKUP(D290,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3708,9 +3728,9 @@
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A291" s="15"/>
-      <c r="B291" s="15"/>
-      <c r="C291" s="15"/>
+      <c r="A291" s="14"/>
+      <c r="B291" s="14"/>
+      <c r="C291" s="14"/>
       <c r="E291" s="3" t="str">
         <f>VLOOKUP(D291,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3721,9 +3741,9 @@
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A292" s="15"/>
-      <c r="B292" s="15"/>
-      <c r="C292" s="15"/>
+      <c r="A292" s="14"/>
+      <c r="B292" s="14"/>
+      <c r="C292" s="14"/>
       <c r="E292" s="3" t="str">
         <f>VLOOKUP(D292,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3734,9 +3754,9 @@
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A293" s="15"/>
-      <c r="B293" s="15"/>
-      <c r="C293" s="15"/>
+      <c r="A293" s="14"/>
+      <c r="B293" s="14"/>
+      <c r="C293" s="14"/>
       <c r="E293" s="3" t="str">
         <f>VLOOKUP(D293,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3747,9 +3767,9 @@
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A294" s="15"/>
-      <c r="B294" s="15"/>
-      <c r="C294" s="15"/>
+      <c r="A294" s="14"/>
+      <c r="B294" s="14"/>
+      <c r="C294" s="14"/>
       <c r="E294" s="3" t="str">
         <f>VLOOKUP(D294,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3760,9 +3780,9 @@
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A295" s="15"/>
-      <c r="B295" s="15"/>
-      <c r="C295" s="15"/>
+      <c r="A295" s="14"/>
+      <c r="B295" s="14"/>
+      <c r="C295" s="14"/>
       <c r="E295" s="3" t="str">
         <f>VLOOKUP(D295,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3773,9 +3793,9 @@
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A296" s="15"/>
-      <c r="B296" s="15"/>
-      <c r="C296" s="15"/>
+      <c r="A296" s="14"/>
+      <c r="B296" s="14"/>
+      <c r="C296" s="14"/>
       <c r="E296" s="3" t="str">
         <f>VLOOKUP(D296,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3786,9 +3806,9 @@
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A297" s="15"/>
-      <c r="B297" s="15"/>
-      <c r="C297" s="15"/>
+      <c r="A297" s="14"/>
+      <c r="B297" s="14"/>
+      <c r="C297" s="14"/>
       <c r="E297" s="3" t="str">
         <f>VLOOKUP(D297,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3799,9 +3819,9 @@
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A298" s="15"/>
-      <c r="B298" s="15"/>
-      <c r="C298" s="15"/>
+      <c r="A298" s="14"/>
+      <c r="B298" s="14"/>
+      <c r="C298" s="14"/>
       <c r="E298" s="3" t="str">
         <f>VLOOKUP(D298,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3812,9 +3832,9 @@
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A299" s="15"/>
-      <c r="B299" s="15"/>
-      <c r="C299" s="15"/>
+      <c r="A299" s="14"/>
+      <c r="B299" s="14"/>
+      <c r="C299" s="14"/>
       <c r="E299" s="3" t="str">
         <f>VLOOKUP(D299,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3825,9 +3845,9 @@
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A300" s="15"/>
-      <c r="B300" s="15"/>
-      <c r="C300" s="15"/>
+      <c r="A300" s="14"/>
+      <c r="B300" s="14"/>
+      <c r="C300" s="14"/>
       <c r="E300" s="3" t="str">
         <f>VLOOKUP(D300,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3838,9 +3858,9 @@
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A301" s="15"/>
-      <c r="B301" s="15"/>
-      <c r="C301" s="15"/>
+      <c r="A301" s="14"/>
+      <c r="B301" s="14"/>
+      <c r="C301" s="14"/>
       <c r="E301" s="3" t="str">
         <f>VLOOKUP(D301,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3851,9 +3871,9 @@
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A302" s="15"/>
-      <c r="B302" s="15"/>
-      <c r="C302" s="15"/>
+      <c r="A302" s="14"/>
+      <c r="B302" s="14"/>
+      <c r="C302" s="14"/>
       <c r="E302" s="3" t="str">
         <f>VLOOKUP(D302,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3864,9 +3884,9 @@
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A303" s="15"/>
-      <c r="B303" s="15"/>
-      <c r="C303" s="15"/>
+      <c r="A303" s="14"/>
+      <c r="B303" s="14"/>
+      <c r="C303" s="14"/>
       <c r="E303" s="3" t="str">
         <f>VLOOKUP(D303,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3877,9 +3897,9 @@
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A304" s="15"/>
-      <c r="B304" s="15"/>
-      <c r="C304" s="15"/>
+      <c r="A304" s="14"/>
+      <c r="B304" s="14"/>
+      <c r="C304" s="14"/>
       <c r="E304" s="3" t="str">
         <f>VLOOKUP(D304,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3890,9 +3910,9 @@
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A305" s="15"/>
-      <c r="B305" s="15"/>
-      <c r="C305" s="15"/>
+      <c r="A305" s="14"/>
+      <c r="B305" s="14"/>
+      <c r="C305" s="14"/>
       <c r="E305" s="3" t="str">
         <f>VLOOKUP(D305,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3903,9 +3923,9 @@
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A306" s="15"/>
-      <c r="B306" s="15"/>
-      <c r="C306" s="15"/>
+      <c r="A306" s="14"/>
+      <c r="B306" s="14"/>
+      <c r="C306" s="14"/>
       <c r="E306" s="3" t="str">
         <f>VLOOKUP(D306,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3916,9 +3936,9 @@
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A307" s="15"/>
-      <c r="B307" s="15"/>
-      <c r="C307" s="15"/>
+      <c r="A307" s="14"/>
+      <c r="B307" s="14"/>
+      <c r="C307" s="14"/>
       <c r="E307" s="3" t="str">
         <f>VLOOKUP(D307,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3929,9 +3949,9 @@
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A308" s="15"/>
-      <c r="B308" s="15"/>
-      <c r="C308" s="15"/>
+      <c r="A308" s="14"/>
+      <c r="B308" s="14"/>
+      <c r="C308" s="14"/>
       <c r="E308" s="3" t="str">
         <f>VLOOKUP(D308,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3942,9 +3962,9 @@
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A309" s="15"/>
-      <c r="B309" s="15"/>
-      <c r="C309" s="15"/>
+      <c r="A309" s="14"/>
+      <c r="B309" s="14"/>
+      <c r="C309" s="14"/>
       <c r="E309" s="3" t="str">
         <f>VLOOKUP(D309,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3955,9 +3975,9 @@
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A310" s="15"/>
-      <c r="B310" s="15"/>
-      <c r="C310" s="15"/>
+      <c r="A310" s="14"/>
+      <c r="B310" s="14"/>
+      <c r="C310" s="14"/>
       <c r="E310" s="3" t="str">
         <f>VLOOKUP(D310,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3968,9 +3988,9 @@
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A311" s="15"/>
-      <c r="B311" s="15"/>
-      <c r="C311" s="15"/>
+      <c r="A311" s="14"/>
+      <c r="B311" s="14"/>
+      <c r="C311" s="14"/>
       <c r="E311" s="3" t="str">
         <f>VLOOKUP(D311,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3981,9 +4001,9 @@
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A312" s="15"/>
-      <c r="B312" s="15"/>
-      <c r="C312" s="15"/>
+      <c r="A312" s="14"/>
+      <c r="B312" s="14"/>
+      <c r="C312" s="14"/>
       <c r="E312" s="3" t="str">
         <f>VLOOKUP(D312,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3994,9 +4014,9 @@
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A313" s="15"/>
-      <c r="B313" s="15"/>
-      <c r="C313" s="15"/>
+      <c r="A313" s="14"/>
+      <c r="B313" s="14"/>
+      <c r="C313" s="14"/>
       <c r="E313" s="3" t="str">
         <f>VLOOKUP(D313,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4007,9 +4027,9 @@
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A314" s="15"/>
-      <c r="B314" s="15"/>
-      <c r="C314" s="15"/>
+      <c r="A314" s="14"/>
+      <c r="B314" s="14"/>
+      <c r="C314" s="14"/>
       <c r="E314" s="3" t="str">
         <f>VLOOKUP(D314,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4020,9 +4040,9 @@
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A315" s="15"/>
-      <c r="B315" s="15"/>
-      <c r="C315" s="15"/>
+      <c r="A315" s="14"/>
+      <c r="B315" s="14"/>
+      <c r="C315" s="14"/>
       <c r="E315" s="3" t="str">
         <f>VLOOKUP(D315,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4033,9 +4053,9 @@
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A316" s="15"/>
-      <c r="B316" s="15"/>
-      <c r="C316" s="15"/>
+      <c r="A316" s="14"/>
+      <c r="B316" s="14"/>
+      <c r="C316" s="14"/>
       <c r="E316" s="3" t="str">
         <f>VLOOKUP(D316,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4046,9 +4066,9 @@
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A317" s="15"/>
-      <c r="B317" s="15"/>
-      <c r="C317" s="15"/>
+      <c r="A317" s="14"/>
+      <c r="B317" s="14"/>
+      <c r="C317" s="14"/>
       <c r="E317" s="3" t="str">
         <f>VLOOKUP(D317,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4059,9 +4079,9 @@
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A318" s="15"/>
-      <c r="B318" s="15"/>
-      <c r="C318" s="15"/>
+      <c r="A318" s="14"/>
+      <c r="B318" s="14"/>
+      <c r="C318" s="14"/>
       <c r="E318" s="3" t="str">
         <f>VLOOKUP(D318,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4072,9 +4092,9 @@
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A319" s="15"/>
-      <c r="B319" s="15"/>
-      <c r="C319" s="15"/>
+      <c r="A319" s="14"/>
+      <c r="B319" s="14"/>
+      <c r="C319" s="14"/>
       <c r="E319" s="3" t="str">
         <f>VLOOKUP(D319,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4085,9 +4105,9 @@
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A320" s="15"/>
-      <c r="B320" s="15"/>
-      <c r="C320" s="15"/>
+      <c r="A320" s="14"/>
+      <c r="B320" s="14"/>
+      <c r="C320" s="14"/>
       <c r="E320" s="3" t="str">
         <f>VLOOKUP(D320,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4098,9 +4118,9 @@
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A321" s="15"/>
-      <c r="B321" s="15"/>
-      <c r="C321" s="15"/>
+      <c r="A321" s="14"/>
+      <c r="B321" s="14"/>
+      <c r="C321" s="14"/>
       <c r="E321" s="3" t="str">
         <f>VLOOKUP(D321,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4111,9 +4131,9 @@
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A322" s="15"/>
-      <c r="B322" s="15"/>
-      <c r="C322" s="15"/>
+      <c r="A322" s="14"/>
+      <c r="B322" s="14"/>
+      <c r="C322" s="14"/>
       <c r="E322" s="3" t="str">
         <f>VLOOKUP(D322,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4124,9 +4144,9 @@
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A323" s="15"/>
-      <c r="B323" s="15"/>
-      <c r="C323" s="15"/>
+      <c r="A323" s="14"/>
+      <c r="B323" s="14"/>
+      <c r="C323" s="14"/>
       <c r="E323" s="3" t="str">
         <f>VLOOKUP(D323,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4137,9 +4157,9 @@
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A324" s="15"/>
-      <c r="B324" s="15"/>
-      <c r="C324" s="15"/>
+      <c r="A324" s="14"/>
+      <c r="B324" s="14"/>
+      <c r="C324" s="14"/>
       <c r="E324" s="3" t="str">
         <f>VLOOKUP(D324,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4150,9 +4170,9 @@
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A325" s="15"/>
-      <c r="B325" s="15"/>
-      <c r="C325" s="15"/>
+      <c r="A325" s="14"/>
+      <c r="B325" s="14"/>
+      <c r="C325" s="14"/>
       <c r="E325" s="3" t="str">
         <f>VLOOKUP(D325,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4163,9 +4183,9 @@
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A326" s="15"/>
-      <c r="B326" s="15"/>
-      <c r="C326" s="15"/>
+      <c r="A326" s="14"/>
+      <c r="B326" s="14"/>
+      <c r="C326" s="14"/>
       <c r="E326" s="3" t="str">
         <f>VLOOKUP(D326,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4176,9 +4196,9 @@
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A327" s="15"/>
-      <c r="B327" s="15"/>
-      <c r="C327" s="15"/>
+      <c r="A327" s="14"/>
+      <c r="B327" s="14"/>
+      <c r="C327" s="14"/>
       <c r="E327" s="3" t="str">
         <f>VLOOKUP(D327,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4189,9 +4209,9 @@
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A328" s="15"/>
-      <c r="B328" s="15"/>
-      <c r="C328" s="15"/>
+      <c r="A328" s="14"/>
+      <c r="B328" s="14"/>
+      <c r="C328" s="14"/>
       <c r="E328" s="3" t="str">
         <f>VLOOKUP(D328,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4202,9 +4222,9 @@
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A329" s="15"/>
-      <c r="B329" s="15"/>
-      <c r="C329" s="15"/>
+      <c r="A329" s="14"/>
+      <c r="B329" s="14"/>
+      <c r="C329" s="14"/>
       <c r="E329" s="3" t="str">
         <f>VLOOKUP(D329,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4215,9 +4235,9 @@
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A330" s="15"/>
-      <c r="B330" s="15"/>
-      <c r="C330" s="15"/>
+      <c r="A330" s="14"/>
+      <c r="B330" s="14"/>
+      <c r="C330" s="14"/>
       <c r="E330" s="3" t="str">
         <f>VLOOKUP(D330,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4228,9 +4248,9 @@
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A331" s="15"/>
-      <c r="B331" s="15"/>
-      <c r="C331" s="15"/>
+      <c r="A331" s="14"/>
+      <c r="B331" s="14"/>
+      <c r="C331" s="14"/>
       <c r="E331" s="3" t="str">
         <f>VLOOKUP(D331,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4241,9 +4261,9 @@
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A332" s="15"/>
-      <c r="B332" s="15"/>
-      <c r="C332" s="15"/>
+      <c r="A332" s="14"/>
+      <c r="B332" s="14"/>
+      <c r="C332" s="14"/>
       <c r="E332" s="3" t="str">
         <f>VLOOKUP(D332,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4254,9 +4274,9 @@
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A333" s="15"/>
-      <c r="B333" s="15"/>
-      <c r="C333" s="15"/>
+      <c r="A333" s="14"/>
+      <c r="B333" s="14"/>
+      <c r="C333" s="14"/>
       <c r="E333" s="3" t="str">
         <f>VLOOKUP(D333,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4267,9 +4287,9 @@
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A334" s="15"/>
-      <c r="B334" s="15"/>
-      <c r="C334" s="15"/>
+      <c r="A334" s="14"/>
+      <c r="B334" s="14"/>
+      <c r="C334" s="14"/>
       <c r="E334" s="3" t="str">
         <f>VLOOKUP(D334,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4280,9 +4300,9 @@
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A335" s="15"/>
-      <c r="B335" s="15"/>
-      <c r="C335" s="15"/>
+      <c r="A335" s="14"/>
+      <c r="B335" s="14"/>
+      <c r="C335" s="14"/>
       <c r="E335" s="3" t="str">
         <f>VLOOKUP(D335,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4293,9 +4313,9 @@
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A336" s="15"/>
-      <c r="B336" s="15"/>
-      <c r="C336" s="15"/>
+      <c r="A336" s="14"/>
+      <c r="B336" s="14"/>
+      <c r="C336" s="14"/>
       <c r="E336" s="3" t="str">
         <f>VLOOKUP(D336,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4306,9 +4326,9 @@
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A337" s="15"/>
-      <c r="B337" s="15"/>
-      <c r="C337" s="15"/>
+      <c r="A337" s="14"/>
+      <c r="B337" s="14"/>
+      <c r="C337" s="14"/>
       <c r="E337" s="3" t="str">
         <f>VLOOKUP(D337,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4319,9 +4339,9 @@
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A338" s="15"/>
-      <c r="B338" s="15"/>
-      <c r="C338" s="15"/>
+      <c r="A338" s="14"/>
+      <c r="B338" s="14"/>
+      <c r="C338" s="14"/>
       <c r="E338" s="3" t="str">
         <f>VLOOKUP(D338,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4332,9 +4352,9 @@
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A339" s="15"/>
-      <c r="B339" s="15"/>
-      <c r="C339" s="15"/>
+      <c r="A339" s="14"/>
+      <c r="B339" s="14"/>
+      <c r="C339" s="14"/>
       <c r="E339" s="3" t="str">
         <f>VLOOKUP(D339,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4345,9 +4365,9 @@
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A340" s="15"/>
-      <c r="B340" s="15"/>
-      <c r="C340" s="15"/>
+      <c r="A340" s="14"/>
+      <c r="B340" s="14"/>
+      <c r="C340" s="14"/>
       <c r="E340" s="3" t="str">
         <f>VLOOKUP(D340,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4358,9 +4378,9 @@
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A341" s="15"/>
-      <c r="B341" s="15"/>
-      <c r="C341" s="15"/>
+      <c r="A341" s="14"/>
+      <c r="B341" s="14"/>
+      <c r="C341" s="14"/>
       <c r="E341" s="3" t="str">
         <f>VLOOKUP(D341,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4371,9 +4391,9 @@
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A342" s="15"/>
-      <c r="B342" s="15"/>
-      <c r="C342" s="15"/>
+      <c r="A342" s="14"/>
+      <c r="B342" s="14"/>
+      <c r="C342" s="14"/>
       <c r="E342" s="3" t="str">
         <f>VLOOKUP(D342,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4384,9 +4404,9 @@
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A343" s="15"/>
-      <c r="B343" s="15"/>
-      <c r="C343" s="15"/>
+      <c r="A343" s="14"/>
+      <c r="B343" s="14"/>
+      <c r="C343" s="14"/>
       <c r="E343" s="3" t="str">
         <f>VLOOKUP(D343,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4397,9 +4417,9 @@
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A344" s="15"/>
-      <c r="B344" s="15"/>
-      <c r="C344" s="15"/>
+      <c r="A344" s="14"/>
+      <c r="B344" s="14"/>
+      <c r="C344" s="14"/>
       <c r="E344" s="3" t="str">
         <f>VLOOKUP(D344,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4410,9 +4430,9 @@
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A345" s="15"/>
-      <c r="B345" s="15"/>
-      <c r="C345" s="15"/>
+      <c r="A345" s="14"/>
+      <c r="B345" s="14"/>
+      <c r="C345" s="14"/>
       <c r="E345" s="3" t="str">
         <f>VLOOKUP(D345,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4423,9 +4443,9 @@
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A346" s="15"/>
-      <c r="B346" s="15"/>
-      <c r="C346" s="15"/>
+      <c r="A346" s="14"/>
+      <c r="B346" s="14"/>
+      <c r="C346" s="14"/>
       <c r="E346" s="3" t="str">
         <f>VLOOKUP(D346,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4436,9 +4456,9 @@
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A347" s="15"/>
-      <c r="B347" s="15"/>
-      <c r="C347" s="15"/>
+      <c r="A347" s="14"/>
+      <c r="B347" s="14"/>
+      <c r="C347" s="14"/>
       <c r="E347" s="3" t="str">
         <f>VLOOKUP(D347,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4449,9 +4469,9 @@
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A348" s="15"/>
-      <c r="B348" s="15"/>
-      <c r="C348" s="15"/>
+      <c r="A348" s="14"/>
+      <c r="B348" s="14"/>
+      <c r="C348" s="14"/>
       <c r="E348" s="3" t="str">
         <f>VLOOKUP(D348,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4462,9 +4482,9 @@
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A349" s="15"/>
-      <c r="B349" s="15"/>
-      <c r="C349" s="15"/>
+      <c r="A349" s="14"/>
+      <c r="B349" s="14"/>
+      <c r="C349" s="14"/>
       <c r="E349" s="3" t="str">
         <f>VLOOKUP(D349,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4475,9 +4495,9 @@
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A350" s="15"/>
-      <c r="B350" s="15"/>
-      <c r="C350" s="15"/>
+      <c r="A350" s="14"/>
+      <c r="B350" s="14"/>
+      <c r="C350" s="14"/>
       <c r="E350" s="3" t="str">
         <f>VLOOKUP(D350,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4488,9 +4508,9 @@
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A351" s="15"/>
-      <c r="B351" s="15"/>
-      <c r="C351" s="15"/>
+      <c r="A351" s="14"/>
+      <c r="B351" s="14"/>
+      <c r="C351" s="14"/>
       <c r="E351" s="3" t="str">
         <f>VLOOKUP(D351,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4501,9 +4521,9 @@
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A352" s="15"/>
-      <c r="B352" s="15"/>
-      <c r="C352" s="15"/>
+      <c r="A352" s="14"/>
+      <c r="B352" s="14"/>
+      <c r="C352" s="14"/>
       <c r="E352" s="3" t="str">
         <f>VLOOKUP(D352,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4514,9 +4534,9 @@
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A353" s="15"/>
-      <c r="B353" s="15"/>
-      <c r="C353" s="15"/>
+      <c r="A353" s="14"/>
+      <c r="B353" s="14"/>
+      <c r="C353" s="14"/>
       <c r="E353" s="3" t="str">
         <f>VLOOKUP(D353,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4527,9 +4547,9 @@
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A354" s="15"/>
-      <c r="B354" s="15"/>
-      <c r="C354" s="15"/>
+      <c r="A354" s="14"/>
+      <c r="B354" s="14"/>
+      <c r="C354" s="14"/>
       <c r="E354" s="3" t="str">
         <f>VLOOKUP(D354,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4540,9 +4560,9 @@
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A355" s="15"/>
-      <c r="B355" s="15"/>
-      <c r="C355" s="15"/>
+      <c r="A355" s="14"/>
+      <c r="B355" s="14"/>
+      <c r="C355" s="14"/>
       <c r="E355" s="3" t="str">
         <f>VLOOKUP(D355,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4553,9 +4573,9 @@
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A356" s="15"/>
-      <c r="B356" s="15"/>
-      <c r="C356" s="15"/>
+      <c r="A356" s="14"/>
+      <c r="B356" s="14"/>
+      <c r="C356" s="14"/>
       <c r="E356" s="3" t="str">
         <f>VLOOKUP(D356,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4566,9 +4586,9 @@
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A357" s="15"/>
-      <c r="B357" s="15"/>
-      <c r="C357" s="15"/>
+      <c r="A357" s="14"/>
+      <c r="B357" s="14"/>
+      <c r="C357" s="14"/>
       <c r="E357" s="3" t="str">
         <f>VLOOKUP(D357,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4579,9 +4599,9 @@
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A358" s="15"/>
-      <c r="B358" s="15"/>
-      <c r="C358" s="15"/>
+      <c r="A358" s="14"/>
+      <c r="B358" s="14"/>
+      <c r="C358" s="14"/>
       <c r="E358" s="3" t="str">
         <f>VLOOKUP(D358,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4592,9 +4612,9 @@
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A359" s="15"/>
-      <c r="B359" s="15"/>
-      <c r="C359" s="15"/>
+      <c r="A359" s="14"/>
+      <c r="B359" s="14"/>
+      <c r="C359" s="14"/>
       <c r="E359" s="3" t="str">
         <f>VLOOKUP(D359,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4605,9 +4625,9 @@
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A360" s="15"/>
-      <c r="B360" s="15"/>
-      <c r="C360" s="15"/>
+      <c r="A360" s="14"/>
+      <c r="B360" s="14"/>
+      <c r="C360" s="14"/>
       <c r="E360" s="3" t="str">
         <f>VLOOKUP(D360,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4618,9 +4638,9 @@
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A361" s="15"/>
-      <c r="B361" s="15"/>
-      <c r="C361" s="15"/>
+      <c r="A361" s="14"/>
+      <c r="B361" s="14"/>
+      <c r="C361" s="14"/>
       <c r="E361" s="3" t="str">
         <f>VLOOKUP(D361,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4631,9 +4651,9 @@
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A362" s="15"/>
-      <c r="B362" s="15"/>
-      <c r="C362" s="15"/>
+      <c r="A362" s="14"/>
+      <c r="B362" s="14"/>
+      <c r="C362" s="14"/>
       <c r="E362" s="3" t="str">
         <f>VLOOKUP(D362,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4644,9 +4664,9 @@
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A363" s="15"/>
-      <c r="B363" s="15"/>
-      <c r="C363" s="15"/>
+      <c r="A363" s="14"/>
+      <c r="B363" s="14"/>
+      <c r="C363" s="14"/>
       <c r="E363" s="3" t="str">
         <f>VLOOKUP(D363,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4657,9 +4677,9 @@
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A364" s="15"/>
-      <c r="B364" s="15"/>
-      <c r="C364" s="15"/>
+      <c r="A364" s="14"/>
+      <c r="B364" s="14"/>
+      <c r="C364" s="14"/>
       <c r="E364" s="3" t="str">
         <f>VLOOKUP(D364,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4670,9 +4690,9 @@
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A365" s="15"/>
-      <c r="B365" s="15"/>
-      <c r="C365" s="15"/>
+      <c r="A365" s="14"/>
+      <c r="B365" s="14"/>
+      <c r="C365" s="14"/>
       <c r="E365" s="3" t="str">
         <f>VLOOKUP(D365,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4683,9 +4703,9 @@
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A366" s="15"/>
-      <c r="B366" s="15"/>
-      <c r="C366" s="15"/>
+      <c r="A366" s="14"/>
+      <c r="B366" s="14"/>
+      <c r="C366" s="14"/>
       <c r="E366" s="3" t="str">
         <f>VLOOKUP(D366,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4696,9 +4716,9 @@
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A367" s="15"/>
-      <c r="B367" s="15"/>
-      <c r="C367" s="15"/>
+      <c r="A367" s="14"/>
+      <c r="B367" s="14"/>
+      <c r="C367" s="14"/>
       <c r="E367" s="3" t="str">
         <f>VLOOKUP(D367,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4709,9 +4729,9 @@
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A368" s="15"/>
-      <c r="B368" s="15"/>
-      <c r="C368" s="15"/>
+      <c r="A368" s="14"/>
+      <c r="B368" s="14"/>
+      <c r="C368" s="14"/>
       <c r="E368" s="3" t="str">
         <f>VLOOKUP(D368,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4722,9 +4742,9 @@
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A369" s="15"/>
-      <c r="B369" s="15"/>
-      <c r="C369" s="15"/>
+      <c r="A369" s="14"/>
+      <c r="B369" s="14"/>
+      <c r="C369" s="14"/>
       <c r="E369" s="3" t="str">
         <f>VLOOKUP(D369,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4735,9 +4755,9 @@
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A370" s="15"/>
-      <c r="B370" s="15"/>
-      <c r="C370" s="15"/>
+      <c r="A370" s="14"/>
+      <c r="B370" s="14"/>
+      <c r="C370" s="14"/>
       <c r="E370" s="3" t="str">
         <f>VLOOKUP(D370,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4748,9 +4768,9 @@
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A371" s="15"/>
-      <c r="B371" s="15"/>
-      <c r="C371" s="15"/>
+      <c r="A371" s="14"/>
+      <c r="B371" s="14"/>
+      <c r="C371" s="14"/>
       <c r="E371" s="3" t="str">
         <f>VLOOKUP(D371,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4761,9 +4781,9 @@
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A372" s="15"/>
-      <c r="B372" s="15"/>
-      <c r="C372" s="15"/>
+      <c r="A372" s="14"/>
+      <c r="B372" s="14"/>
+      <c r="C372" s="14"/>
       <c r="E372" s="3" t="str">
         <f>VLOOKUP(D372,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4774,9 +4794,9 @@
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A373" s="15"/>
-      <c r="B373" s="15"/>
-      <c r="C373" s="15"/>
+      <c r="A373" s="14"/>
+      <c r="B373" s="14"/>
+      <c r="C373" s="14"/>
       <c r="E373" s="3" t="str">
         <f>VLOOKUP(D373,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4787,9 +4807,9 @@
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A374" s="15"/>
-      <c r="B374" s="15"/>
-      <c r="C374" s="15"/>
+      <c r="A374" s="14"/>
+      <c r="B374" s="14"/>
+      <c r="C374" s="14"/>
       <c r="E374" s="3" t="str">
         <f>VLOOKUP(D374,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4800,9 +4820,9 @@
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A375" s="15"/>
-      <c r="B375" s="15"/>
-      <c r="C375" s="15"/>
+      <c r="A375" s="14"/>
+      <c r="B375" s="14"/>
+      <c r="C375" s="14"/>
       <c r="E375" s="3" t="str">
         <f>VLOOKUP(D375,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4813,9 +4833,9 @@
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A376" s="15"/>
-      <c r="B376" s="15"/>
-      <c r="C376" s="15"/>
+      <c r="A376" s="14"/>
+      <c r="B376" s="14"/>
+      <c r="C376" s="14"/>
       <c r="E376" s="3" t="str">
         <f>VLOOKUP(D376,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4826,9 +4846,9 @@
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A377" s="15"/>
-      <c r="B377" s="15"/>
-      <c r="C377" s="15"/>
+      <c r="A377" s="14"/>
+      <c r="B377" s="14"/>
+      <c r="C377" s="14"/>
       <c r="E377" s="3" t="str">
         <f>VLOOKUP(D377,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4839,9 +4859,9 @@
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A378" s="15"/>
-      <c r="B378" s="15"/>
-      <c r="C378" s="15"/>
+      <c r="A378" s="14"/>
+      <c r="B378" s="14"/>
+      <c r="C378" s="14"/>
       <c r="E378" s="3" t="str">
         <f>VLOOKUP(D378,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4852,9 +4872,9 @@
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A379" s="15"/>
-      <c r="B379" s="15"/>
-      <c r="C379" s="15"/>
+      <c r="A379" s="14"/>
+      <c r="B379" s="14"/>
+      <c r="C379" s="14"/>
       <c r="E379" s="3" t="str">
         <f>VLOOKUP(D379,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4865,9 +4885,9 @@
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A380" s="15"/>
-      <c r="B380" s="15"/>
-      <c r="C380" s="15"/>
+      <c r="A380" s="14"/>
+      <c r="B380" s="14"/>
+      <c r="C380" s="14"/>
       <c r="E380" s="3" t="str">
         <f>VLOOKUP(D380,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4878,9 +4898,9 @@
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A381" s="15"/>
-      <c r="B381" s="15"/>
-      <c r="C381" s="15"/>
+      <c r="A381" s="14"/>
+      <c r="B381" s="14"/>
+      <c r="C381" s="14"/>
       <c r="E381" s="3" t="str">
         <f>VLOOKUP(D381,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4891,9 +4911,9 @@
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A382" s="15"/>
-      <c r="B382" s="15"/>
-      <c r="C382" s="15"/>
+      <c r="A382" s="14"/>
+      <c r="B382" s="14"/>
+      <c r="C382" s="14"/>
       <c r="E382" s="3" t="str">
         <f>VLOOKUP(D382,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4904,9 +4924,9 @@
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A383" s="15"/>
-      <c r="B383" s="15"/>
-      <c r="C383" s="15"/>
+      <c r="A383" s="14"/>
+      <c r="B383" s="14"/>
+      <c r="C383" s="14"/>
       <c r="E383" s="3" t="str">
         <f>VLOOKUP(D383,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4917,9 +4937,9 @@
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A384" s="15"/>
-      <c r="B384" s="15"/>
-      <c r="C384" s="15"/>
+      <c r="A384" s="14"/>
+      <c r="B384" s="14"/>
+      <c r="C384" s="14"/>
       <c r="E384" s="3" t="str">
         <f>VLOOKUP(D384,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4930,9 +4950,9 @@
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A385" s="15"/>
-      <c r="B385" s="15"/>
-      <c r="C385" s="15"/>
+      <c r="A385" s="14"/>
+      <c r="B385" s="14"/>
+      <c r="C385" s="14"/>
       <c r="E385" s="3" t="str">
         <f>VLOOKUP(D385,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4943,9 +4963,9 @@
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A386" s="15"/>
-      <c r="B386" s="15"/>
-      <c r="C386" s="15"/>
+      <c r="A386" s="14"/>
+      <c r="B386" s="14"/>
+      <c r="C386" s="14"/>
       <c r="E386" s="3" t="str">
         <f>VLOOKUP(D386,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4956,9 +4976,9 @@
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A387" s="15"/>
-      <c r="B387" s="15"/>
-      <c r="C387" s="15"/>
+      <c r="A387" s="14"/>
+      <c r="B387" s="14"/>
+      <c r="C387" s="14"/>
       <c r="E387" s="3" t="str">
         <f>VLOOKUP(D387,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4969,9 +4989,9 @@
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A388" s="15"/>
-      <c r="B388" s="15"/>
-      <c r="C388" s="15"/>
+      <c r="A388" s="14"/>
+      <c r="B388" s="14"/>
+      <c r="C388" s="14"/>
       <c r="E388" s="3" t="str">
         <f>VLOOKUP(D388,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4982,9 +5002,9 @@
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A389" s="15"/>
-      <c r="B389" s="15"/>
-      <c r="C389" s="15"/>
+      <c r="A389" s="14"/>
+      <c r="B389" s="14"/>
+      <c r="C389" s="14"/>
       <c r="E389" s="3" t="str">
         <f>VLOOKUP(D389,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4995,9 +5015,9 @@
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A390" s="15"/>
-      <c r="B390" s="15"/>
-      <c r="C390" s="15"/>
+      <c r="A390" s="14"/>
+      <c r="B390" s="14"/>
+      <c r="C390" s="14"/>
       <c r="E390" s="3" t="str">
         <f>VLOOKUP(D390,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5008,9 +5028,9 @@
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A391" s="15"/>
-      <c r="B391" s="15"/>
-      <c r="C391" s="15"/>
+      <c r="A391" s="14"/>
+      <c r="B391" s="14"/>
+      <c r="C391" s="14"/>
       <c r="E391" s="3" t="str">
         <f>VLOOKUP(D391,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5021,9 +5041,9 @@
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A392" s="15"/>
-      <c r="B392" s="15"/>
-      <c r="C392" s="15"/>
+      <c r="A392" s="14"/>
+      <c r="B392" s="14"/>
+      <c r="C392" s="14"/>
       <c r="E392" s="3" t="str">
         <f>VLOOKUP(D392,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5034,9 +5054,9 @@
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A393" s="15"/>
-      <c r="B393" s="15"/>
-      <c r="C393" s="15"/>
+      <c r="A393" s="14"/>
+      <c r="B393" s="14"/>
+      <c r="C393" s="14"/>
       <c r="E393" s="3" t="str">
         <f>VLOOKUP(D393,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5047,9 +5067,9 @@
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A394" s="15"/>
-      <c r="B394" s="15"/>
-      <c r="C394" s="15"/>
+      <c r="A394" s="14"/>
+      <c r="B394" s="14"/>
+      <c r="C394" s="14"/>
       <c r="E394" s="3" t="str">
         <f>VLOOKUP(D394,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5060,9 +5080,9 @@
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A395" s="15"/>
-      <c r="B395" s="15"/>
-      <c r="C395" s="15"/>
+      <c r="A395" s="14"/>
+      <c r="B395" s="14"/>
+      <c r="C395" s="14"/>
       <c r="E395" s="3" t="str">
         <f>VLOOKUP(D395,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5073,9 +5093,9 @@
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A396" s="15"/>
-      <c r="B396" s="15"/>
-      <c r="C396" s="15"/>
+      <c r="A396" s="14"/>
+      <c r="B396" s="14"/>
+      <c r="C396" s="14"/>
       <c r="E396" s="3" t="str">
         <f>VLOOKUP(D396,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5086,9 +5106,9 @@
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A397" s="15"/>
-      <c r="B397" s="15"/>
-      <c r="C397" s="15"/>
+      <c r="A397" s="14"/>
+      <c r="B397" s="14"/>
+      <c r="C397" s="14"/>
       <c r="E397" s="3" t="str">
         <f>VLOOKUP(D397,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5099,9 +5119,9 @@
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A398" s="15"/>
-      <c r="B398" s="15"/>
-      <c r="C398" s="15"/>
+      <c r="A398" s="14"/>
+      <c r="B398" s="14"/>
+      <c r="C398" s="14"/>
       <c r="E398" s="3" t="str">
         <f>VLOOKUP(D398,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5112,9 +5132,9 @@
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A399" s="15"/>
-      <c r="B399" s="15"/>
-      <c r="C399" s="15"/>
+      <c r="A399" s="14"/>
+      <c r="B399" s="14"/>
+      <c r="C399" s="14"/>
       <c r="E399" s="3" t="str">
         <f>VLOOKUP(D399,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5125,9 +5145,9 @@
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A400" s="15"/>
-      <c r="B400" s="15"/>
-      <c r="C400" s="15"/>
+      <c r="A400" s="14"/>
+      <c r="B400" s="14"/>
+      <c r="C400" s="14"/>
       <c r="E400" s="3" t="str">
         <f>VLOOKUP(D400,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5138,9 +5158,9 @@
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A401" s="15"/>
-      <c r="B401" s="15"/>
-      <c r="C401" s="15"/>
+      <c r="A401" s="14"/>
+      <c r="B401" s="14"/>
+      <c r="C401" s="14"/>
       <c r="E401" s="3" t="str">
         <f>VLOOKUP(D401,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5151,9 +5171,9 @@
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A402" s="15"/>
-      <c r="B402" s="15"/>
-      <c r="C402" s="15"/>
+      <c r="A402" s="14"/>
+      <c r="B402" s="14"/>
+      <c r="C402" s="14"/>
       <c r="E402" s="3" t="str">
         <f>VLOOKUP(D402,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5164,9 +5184,9 @@
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A403" s="15"/>
-      <c r="B403" s="15"/>
-      <c r="C403" s="15"/>
+      <c r="A403" s="14"/>
+      <c r="B403" s="14"/>
+      <c r="C403" s="14"/>
       <c r="E403" s="3" t="str">
         <f>VLOOKUP(D403,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5177,9 +5197,9 @@
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A404" s="15"/>
-      <c r="B404" s="15"/>
-      <c r="C404" s="15"/>
+      <c r="A404" s="14"/>
+      <c r="B404" s="14"/>
+      <c r="C404" s="14"/>
       <c r="E404" s="3" t="str">
         <f>VLOOKUP(D404,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5190,9 +5210,9 @@
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A405" s="15"/>
-      <c r="B405" s="15"/>
-      <c r="C405" s="15"/>
+      <c r="A405" s="14"/>
+      <c r="B405" s="14"/>
+      <c r="C405" s="14"/>
       <c r="E405" s="3" t="str">
         <f>VLOOKUP(D405,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5203,9 +5223,9 @@
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A406" s="15"/>
-      <c r="B406" s="15"/>
-      <c r="C406" s="15"/>
+      <c r="A406" s="14"/>
+      <c r="B406" s="14"/>
+      <c r="C406" s="14"/>
       <c r="E406" s="3" t="str">
         <f>VLOOKUP(D406,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5216,9 +5236,9 @@
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A407" s="15"/>
-      <c r="B407" s="15"/>
-      <c r="C407" s="15"/>
+      <c r="A407" s="14"/>
+      <c r="B407" s="14"/>
+      <c r="C407" s="14"/>
       <c r="E407" s="3" t="str">
         <f>VLOOKUP(D407,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5229,9 +5249,9 @@
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A408" s="15"/>
-      <c r="B408" s="15"/>
-      <c r="C408" s="15"/>
+      <c r="A408" s="14"/>
+      <c r="B408" s="14"/>
+      <c r="C408" s="14"/>
       <c r="E408" s="3" t="str">
         <f>VLOOKUP(D408,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5242,9 +5262,9 @@
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A409" s="15"/>
-      <c r="B409" s="15"/>
-      <c r="C409" s="15"/>
+      <c r="A409" s="14"/>
+      <c r="B409" s="14"/>
+      <c r="C409" s="14"/>
       <c r="E409" s="3" t="str">
         <f>VLOOKUP(D409,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5255,9 +5275,9 @@
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A410" s="15"/>
-      <c r="B410" s="15"/>
-      <c r="C410" s="15"/>
+      <c r="A410" s="14"/>
+      <c r="B410" s="14"/>
+      <c r="C410" s="14"/>
       <c r="E410" s="3" t="str">
         <f>VLOOKUP(D410,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5268,9 +5288,9 @@
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A411" s="15"/>
-      <c r="B411" s="15"/>
-      <c r="C411" s="15"/>
+      <c r="A411" s="14"/>
+      <c r="B411" s="14"/>
+      <c r="C411" s="14"/>
       <c r="E411" s="3" t="str">
         <f>VLOOKUP(D411,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5281,9 +5301,9 @@
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A412" s="15"/>
-      <c r="B412" s="15"/>
-      <c r="C412" s="15"/>
+      <c r="A412" s="14"/>
+      <c r="B412" s="14"/>
+      <c r="C412" s="14"/>
       <c r="E412" s="3" t="str">
         <f>VLOOKUP(D412,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5294,9 +5314,9 @@
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A413" s="15"/>
-      <c r="B413" s="15"/>
-      <c r="C413" s="15"/>
+      <c r="A413" s="14"/>
+      <c r="B413" s="14"/>
+      <c r="C413" s="14"/>
       <c r="E413" s="3" t="str">
         <f>VLOOKUP(D413,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5307,9 +5327,9 @@
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A414" s="15"/>
-      <c r="B414" s="15"/>
-      <c r="C414" s="15"/>
+      <c r="A414" s="14"/>
+      <c r="B414" s="14"/>
+      <c r="C414" s="14"/>
       <c r="E414" s="3" t="str">
         <f>VLOOKUP(D414,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5320,9 +5340,9 @@
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A415" s="15"/>
-      <c r="B415" s="15"/>
-      <c r="C415" s="15"/>
+      <c r="A415" s="14"/>
+      <c r="B415" s="14"/>
+      <c r="C415" s="14"/>
       <c r="E415" s="3" t="str">
         <f>VLOOKUP(D415,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5333,9 +5353,9 @@
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A416" s="15"/>
-      <c r="B416" s="15"/>
-      <c r="C416" s="15"/>
+      <c r="A416" s="14"/>
+      <c r="B416" s="14"/>
+      <c r="C416" s="14"/>
       <c r="E416" s="3" t="str">
         <f>VLOOKUP(D416,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5346,9 +5366,9 @@
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A417" s="15"/>
-      <c r="B417" s="15"/>
-      <c r="C417" s="15"/>
+      <c r="A417" s="14"/>
+      <c r="B417" s="14"/>
+      <c r="C417" s="14"/>
       <c r="E417" s="3" t="str">
         <f>VLOOKUP(D417,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5359,9 +5379,9 @@
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A418" s="15"/>
-      <c r="B418" s="15"/>
-      <c r="C418" s="15"/>
+      <c r="A418" s="14"/>
+      <c r="B418" s="14"/>
+      <c r="C418" s="14"/>
       <c r="E418" s="3" t="str">
         <f>VLOOKUP(D418,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5372,9 +5392,9 @@
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A419" s="15"/>
-      <c r="B419" s="15"/>
-      <c r="C419" s="15"/>
+      <c r="A419" s="14"/>
+      <c r="B419" s="14"/>
+      <c r="C419" s="14"/>
       <c r="E419" s="3" t="str">
         <f>VLOOKUP(D419,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5385,9 +5405,9 @@
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A420" s="15"/>
-      <c r="B420" s="15"/>
-      <c r="C420" s="15"/>
+      <c r="A420" s="14"/>
+      <c r="B420" s="14"/>
+      <c r="C420" s="14"/>
       <c r="E420" s="3" t="str">
         <f>VLOOKUP(D420,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5398,9 +5418,9 @@
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A421" s="15"/>
-      <c r="B421" s="15"/>
-      <c r="C421" s="15"/>
+      <c r="A421" s="14"/>
+      <c r="B421" s="14"/>
+      <c r="C421" s="14"/>
       <c r="E421" s="3" t="str">
         <f>VLOOKUP(D421,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5411,9 +5431,9 @@
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A422" s="15"/>
-      <c r="B422" s="15"/>
-      <c r="C422" s="15"/>
+      <c r="A422" s="14"/>
+      <c r="B422" s="14"/>
+      <c r="C422" s="14"/>
       <c r="E422" s="3" t="str">
         <f>VLOOKUP(D422,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5424,9 +5444,9 @@
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A423" s="15"/>
-      <c r="B423" s="15"/>
-      <c r="C423" s="15"/>
+      <c r="A423" s="14"/>
+      <c r="B423" s="14"/>
+      <c r="C423" s="14"/>
       <c r="E423" s="3" t="str">
         <f>VLOOKUP(D423,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5437,9 +5457,9 @@
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A424" s="15"/>
-      <c r="B424" s="15"/>
-      <c r="C424" s="15"/>
+      <c r="A424" s="14"/>
+      <c r="B424" s="14"/>
+      <c r="C424" s="14"/>
       <c r="E424" s="3" t="str">
         <f>VLOOKUP(D424,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5450,9 +5470,9 @@
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A425" s="15"/>
-      <c r="B425" s="15"/>
-      <c r="C425" s="15"/>
+      <c r="A425" s="14"/>
+      <c r="B425" s="14"/>
+      <c r="C425" s="14"/>
       <c r="E425" s="3" t="str">
         <f>VLOOKUP(D425,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5463,9 +5483,9 @@
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A426" s="15"/>
-      <c r="B426" s="15"/>
-      <c r="C426" s="15"/>
+      <c r="A426" s="14"/>
+      <c r="B426" s="14"/>
+      <c r="C426" s="14"/>
       <c r="E426" s="3" t="str">
         <f>VLOOKUP(D426,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5476,9 +5496,9 @@
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A427" s="15"/>
-      <c r="B427" s="15"/>
-      <c r="C427" s="15"/>
+      <c r="A427" s="14"/>
+      <c r="B427" s="14"/>
+      <c r="C427" s="14"/>
       <c r="E427" s="3" t="str">
         <f>VLOOKUP(D427,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5489,9 +5509,9 @@
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A428" s="15"/>
-      <c r="B428" s="15"/>
-      <c r="C428" s="15"/>
+      <c r="A428" s="14"/>
+      <c r="B428" s="14"/>
+      <c r="C428" s="14"/>
       <c r="E428" s="3" t="str">
         <f>VLOOKUP(D428,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5502,9 +5522,9 @@
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A429" s="15"/>
-      <c r="B429" s="15"/>
-      <c r="C429" s="15"/>
+      <c r="A429" s="14"/>
+      <c r="B429" s="14"/>
+      <c r="C429" s="14"/>
       <c r="E429" s="3" t="str">
         <f>VLOOKUP(D429,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5515,9 +5535,9 @@
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A430" s="15"/>
-      <c r="B430" s="15"/>
-      <c r="C430" s="15"/>
+      <c r="A430" s="14"/>
+      <c r="B430" s="14"/>
+      <c r="C430" s="14"/>
       <c r="E430" s="3" t="str">
         <f>VLOOKUP(D430,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5528,9 +5548,9 @@
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A431" s="15"/>
-      <c r="B431" s="15"/>
-      <c r="C431" s="15"/>
+      <c r="A431" s="14"/>
+      <c r="B431" s="14"/>
+      <c r="C431" s="14"/>
       <c r="E431" s="3" t="str">
         <f>VLOOKUP(D431,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5541,9 +5561,9 @@
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A432" s="15"/>
-      <c r="B432" s="15"/>
-      <c r="C432" s="15"/>
+      <c r="A432" s="14"/>
+      <c r="B432" s="14"/>
+      <c r="C432" s="14"/>
       <c r="E432" s="3" t="str">
         <f>VLOOKUP(D432,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5554,9 +5574,9 @@
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A433" s="15"/>
-      <c r="B433" s="15"/>
-      <c r="C433" s="15"/>
+      <c r="A433" s="14"/>
+      <c r="B433" s="14"/>
+      <c r="C433" s="14"/>
       <c r="E433" s="3" t="str">
         <f>VLOOKUP(D433,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5567,9 +5587,9 @@
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A434" s="15"/>
-      <c r="B434" s="15"/>
-      <c r="C434" s="15"/>
+      <c r="A434" s="14"/>
+      <c r="B434" s="14"/>
+      <c r="C434" s="14"/>
       <c r="E434" s="3" t="str">
         <f>VLOOKUP(D434,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5580,9 +5600,9 @@
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A435" s="15"/>
-      <c r="B435" s="15"/>
-      <c r="C435" s="15"/>
+      <c r="A435" s="14"/>
+      <c r="B435" s="14"/>
+      <c r="C435" s="14"/>
       <c r="E435" s="3" t="str">
         <f>VLOOKUP(D435,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5593,9 +5613,9 @@
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A436" s="15"/>
-      <c r="B436" s="15"/>
-      <c r="C436" s="15"/>
+      <c r="A436" s="14"/>
+      <c r="B436" s="14"/>
+      <c r="C436" s="14"/>
       <c r="E436" s="3" t="str">
         <f>VLOOKUP(D436,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5606,9 +5626,9 @@
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A437" s="15"/>
-      <c r="B437" s="15"/>
-      <c r="C437" s="15"/>
+      <c r="A437" s="14"/>
+      <c r="B437" s="14"/>
+      <c r="C437" s="14"/>
       <c r="E437" s="3" t="str">
         <f>VLOOKUP(D437,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5619,9 +5639,9 @@
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A438" s="15"/>
-      <c r="B438" s="15"/>
-      <c r="C438" s="15"/>
+      <c r="A438" s="14"/>
+      <c r="B438" s="14"/>
+      <c r="C438" s="14"/>
       <c r="E438" s="3" t="str">
         <f>VLOOKUP(D438,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5632,9 +5652,9 @@
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A439" s="15"/>
-      <c r="B439" s="15"/>
-      <c r="C439" s="15"/>
+      <c r="A439" s="14"/>
+      <c r="B439" s="14"/>
+      <c r="C439" s="14"/>
       <c r="E439" s="3" t="str">
         <f>VLOOKUP(D439,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5645,9 +5665,9 @@
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A440" s="15"/>
-      <c r="B440" s="15"/>
-      <c r="C440" s="15"/>
+      <c r="A440" s="14"/>
+      <c r="B440" s="14"/>
+      <c r="C440" s="14"/>
       <c r="E440" s="3" t="str">
         <f>VLOOKUP(D440,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5658,9 +5678,9 @@
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A441" s="15"/>
-      <c r="B441" s="15"/>
-      <c r="C441" s="15"/>
+      <c r="A441" s="14"/>
+      <c r="B441" s="14"/>
+      <c r="C441" s="14"/>
       <c r="E441" s="3" t="str">
         <f>VLOOKUP(D441,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5671,9 +5691,9 @@
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A442" s="15"/>
-      <c r="B442" s="15"/>
-      <c r="C442" s="15"/>
+      <c r="A442" s="14"/>
+      <c r="B442" s="14"/>
+      <c r="C442" s="14"/>
       <c r="E442" s="3" t="str">
         <f>VLOOKUP(D442,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5684,9 +5704,9 @@
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A443" s="15"/>
-      <c r="B443" s="15"/>
-      <c r="C443" s="15"/>
+      <c r="A443" s="14"/>
+      <c r="B443" s="14"/>
+      <c r="C443" s="14"/>
       <c r="E443" s="3" t="str">
         <f>VLOOKUP(D443,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5697,9 +5717,9 @@
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A444" s="15"/>
-      <c r="B444" s="15"/>
-      <c r="C444" s="15"/>
+      <c r="A444" s="14"/>
+      <c r="B444" s="14"/>
+      <c r="C444" s="14"/>
       <c r="E444" s="3" t="str">
         <f>VLOOKUP(D444,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5710,9 +5730,9 @@
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A445" s="15"/>
-      <c r="B445" s="15"/>
-      <c r="C445" s="15"/>
+      <c r="A445" s="14"/>
+      <c r="B445" s="14"/>
+      <c r="C445" s="14"/>
       <c r="E445" s="3" t="str">
         <f>VLOOKUP(D445,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5723,9 +5743,9 @@
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A446" s="15"/>
-      <c r="B446" s="15"/>
-      <c r="C446" s="15"/>
+      <c r="A446" s="14"/>
+      <c r="B446" s="14"/>
+      <c r="C446" s="14"/>
       <c r="E446" s="3" t="str">
         <f>VLOOKUP(D446,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5736,9 +5756,9 @@
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A447" s="15"/>
-      <c r="B447" s="15"/>
-      <c r="C447" s="15"/>
+      <c r="A447" s="14"/>
+      <c r="B447" s="14"/>
+      <c r="C447" s="14"/>
       <c r="E447" s="3" t="str">
         <f>VLOOKUP(D447,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5749,9 +5769,9 @@
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A448" s="15"/>
-      <c r="B448" s="15"/>
-      <c r="C448" s="15"/>
+      <c r="A448" s="14"/>
+      <c r="B448" s="14"/>
+      <c r="C448" s="14"/>
       <c r="E448" s="3" t="str">
         <f>VLOOKUP(D448,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5762,9 +5782,9 @@
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A449" s="15"/>
-      <c r="B449" s="15"/>
-      <c r="C449" s="15"/>
+      <c r="A449" s="14"/>
+      <c r="B449" s="14"/>
+      <c r="C449" s="14"/>
       <c r="E449" s="3" t="str">
         <f>VLOOKUP(D449,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5775,9 +5795,9 @@
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A450" s="15"/>
-      <c r="B450" s="15"/>
-      <c r="C450" s="15"/>
+      <c r="A450" s="14"/>
+      <c r="B450" s="14"/>
+      <c r="C450" s="14"/>
       <c r="E450" s="3" t="str">
         <f>VLOOKUP(D450,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5788,9 +5808,9 @@
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A451" s="15"/>
-      <c r="B451" s="15"/>
-      <c r="C451" s="15"/>
+      <c r="A451" s="14"/>
+      <c r="B451" s="14"/>
+      <c r="C451" s="14"/>
       <c r="E451" s="3" t="str">
         <f>VLOOKUP(D451,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5801,9 +5821,9 @@
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A452" s="15"/>
-      <c r="B452" s="15"/>
-      <c r="C452" s="15"/>
+      <c r="A452" s="14"/>
+      <c r="B452" s="14"/>
+      <c r="C452" s="14"/>
       <c r="E452" s="3" t="str">
         <f>VLOOKUP(D452,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5814,8 +5834,8 @@
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B453" s="15"/>
-      <c r="C453" s="15"/>
+      <c r="B453" s="14"/>
+      <c r="C453" s="14"/>
       <c r="E453" s="3" t="str">
         <f>VLOOKUP(D453,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5826,8 +5846,8 @@
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B454" s="15"/>
-      <c r="C454" s="15"/>
+      <c r="B454" s="14"/>
+      <c r="C454" s="14"/>
       <c r="E454" s="3" t="str">
         <f>VLOOKUP(D454,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5838,8 +5858,8 @@
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B455" s="15"/>
-      <c r="C455" s="15"/>
+      <c r="B455" s="14"/>
+      <c r="C455" s="14"/>
       <c r="E455" s="3" t="str">
         <f>VLOOKUP(D455,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5850,8 +5870,8 @@
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B456" s="15"/>
-      <c r="C456" s="15"/>
+      <c r="B456" s="14"/>
+      <c r="C456" s="14"/>
       <c r="E456" s="3" t="str">
         <f>VLOOKUP(D456,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5862,8 +5882,8 @@
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B457" s="15"/>
-      <c r="C457" s="15"/>
+      <c r="B457" s="14"/>
+      <c r="C457" s="14"/>
       <c r="E457" s="3" t="str">
         <f>VLOOKUP(D457,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5874,8 +5894,8 @@
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B458" s="15"/>
-      <c r="C458" s="15"/>
+      <c r="B458" s="14"/>
+      <c r="C458" s="14"/>
       <c r="E458" s="3" t="str">
         <f>VLOOKUP(D458,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5886,8 +5906,8 @@
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B459" s="15"/>
-      <c r="C459" s="15"/>
+      <c r="B459" s="14"/>
+      <c r="C459" s="14"/>
       <c r="E459" s="3" t="str">
         <f>VLOOKUP(D459,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5898,8 +5918,8 @@
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B460" s="15"/>
-      <c r="C460" s="15"/>
+      <c r="B460" s="14"/>
+      <c r="C460" s="14"/>
       <c r="E460" s="3" t="str">
         <f>VLOOKUP(D460,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5910,8 +5930,8 @@
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B461" s="15"/>
-      <c r="C461" s="15"/>
+      <c r="B461" s="14"/>
+      <c r="C461" s="14"/>
       <c r="E461" s="3" t="str">
         <f>VLOOKUP(D461,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5922,8 +5942,8 @@
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B462" s="15"/>
-      <c r="C462" s="15"/>
+      <c r="B462" s="14"/>
+      <c r="C462" s="14"/>
       <c r="E462" s="3" t="str">
         <f>VLOOKUP(D462,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5934,8 +5954,8 @@
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B463" s="15"/>
-      <c r="C463" s="15"/>
+      <c r="B463" s="14"/>
+      <c r="C463" s="14"/>
       <c r="E463" s="3" t="str">
         <f>VLOOKUP(D463,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5946,8 +5966,8 @@
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B464" s="15"/>
-      <c r="C464" s="15"/>
+      <c r="B464" s="14"/>
+      <c r="C464" s="14"/>
       <c r="E464" s="3" t="str">
         <f>VLOOKUP(D464,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5958,8 +5978,8 @@
       </c>
     </row>
     <row r="465" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B465" s="15"/>
-      <c r="C465" s="15"/>
+      <c r="B465" s="14"/>
+      <c r="C465" s="14"/>
       <c r="E465" s="3" t="str">
         <f>VLOOKUP(D465,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5970,8 +5990,8 @@
       </c>
     </row>
     <row r="466" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B466" s="15"/>
-      <c r="C466" s="15"/>
+      <c r="B466" s="14"/>
+      <c r="C466" s="14"/>
       <c r="E466" s="3" t="str">
         <f>VLOOKUP(D466,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5982,8 +6002,8 @@
       </c>
     </row>
     <row r="467" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B467" s="15"/>
-      <c r="C467" s="15"/>
+      <c r="B467" s="14"/>
+      <c r="C467" s="14"/>
       <c r="E467" s="3" t="str">
         <f>VLOOKUP(D467,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5994,8 +6014,8 @@
       </c>
     </row>
     <row r="468" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B468" s="15"/>
-      <c r="C468" s="15"/>
+      <c r="B468" s="14"/>
+      <c r="C468" s="14"/>
       <c r="E468" s="3" t="str">
         <f>VLOOKUP(D468,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -6006,8 +6026,8 @@
       </c>
     </row>
     <row r="469" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B469" s="15"/>
-      <c r="C469" s="15"/>
+      <c r="B469" s="14"/>
+      <c r="C469" s="14"/>
       <c r="E469" s="3" t="str">
         <f>VLOOKUP(D469,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -6018,8 +6038,8 @@
       </c>
     </row>
     <row r="470" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B470" s="15"/>
-      <c r="C470" s="15"/>
+      <c r="B470" s="14"/>
+      <c r="C470" s="14"/>
       <c r="E470" s="3" t="str">
         <f>VLOOKUP(D470,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -6030,8 +6050,8 @@
       </c>
     </row>
     <row r="471" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B471" s="15"/>
-      <c r="C471" s="15"/>
+      <c r="B471" s="14"/>
+      <c r="C471" s="14"/>
       <c r="E471" s="3" t="str">
         <f>VLOOKUP(D471,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -6042,8 +6062,8 @@
       </c>
     </row>
     <row r="472" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B472" s="15"/>
-      <c r="C472" s="15"/>
+      <c r="B472" s="14"/>
+      <c r="C472" s="14"/>
       <c r="E472" s="3" t="str">
         <f>VLOOKUP(D472,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -6054,8 +6074,8 @@
       </c>
     </row>
     <row r="473" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B473" s="15"/>
-      <c r="C473" s="15"/>
+      <c r="B473" s="14"/>
+      <c r="C473" s="14"/>
       <c r="E473" s="3" t="str">
         <f>VLOOKUP(D473,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -6066,8 +6086,8 @@
       </c>
     </row>
     <row r="474" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B474" s="15"/>
-      <c r="C474" s="15"/>
+      <c r="B474" s="14"/>
+      <c r="C474" s="14"/>
       <c r="E474" s="3" t="str">
         <f>VLOOKUP(D474,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -6078,8 +6098,8 @@
       </c>
     </row>
     <row r="475" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B475" s="15"/>
-      <c r="C475" s="15"/>
+      <c r="B475" s="14"/>
+      <c r="C475" s="14"/>
       <c r="E475" s="3" t="str">
         <f>VLOOKUP(D475,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -6090,8 +6110,8 @@
       </c>
     </row>
     <row r="476" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B476" s="15"/>
-      <c r="C476" s="15"/>
+      <c r="B476" s="14"/>
+      <c r="C476" s="14"/>
       <c r="E476" s="3" t="str">
         <f>VLOOKUP(D476,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -6102,8 +6122,8 @@
       </c>
     </row>
     <row r="477" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B477" s="15"/>
-      <c r="C477" s="15"/>
+      <c r="B477" s="14"/>
+      <c r="C477" s="14"/>
       <c r="E477" s="3" t="str">
         <f>VLOOKUP(D477,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -6114,8 +6134,8 @@
       </c>
     </row>
     <row r="478" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B478" s="15"/>
-      <c r="C478" s="15"/>
+      <c r="B478" s="14"/>
+      <c r="C478" s="14"/>
       <c r="E478" s="3" t="str">
         <f>VLOOKUP(D478,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -6126,8 +6146,8 @@
       </c>
     </row>
     <row r="479" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B479" s="15"/>
-      <c r="C479" s="15"/>
+      <c r="B479" s="14"/>
+      <c r="C479" s="14"/>
       <c r="E479" s="3" t="str">
         <f>VLOOKUP(D479,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -6138,8 +6158,8 @@
       </c>
     </row>
     <row r="480" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B480" s="15"/>
-      <c r="C480" s="15"/>
+      <c r="B480" s="14"/>
+      <c r="C480" s="14"/>
       <c r="E480" s="3" t="str">
         <f>VLOOKUP(D480,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -6150,8 +6170,8 @@
       </c>
     </row>
     <row r="481" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B481" s="15"/>
-      <c r="C481" s="15"/>
+      <c r="B481" s="14"/>
+      <c r="C481" s="14"/>
       <c r="E481" s="3" t="str">
         <f>VLOOKUP(D481,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -6162,8 +6182,8 @@
       </c>
     </row>
     <row r="482" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B482" s="15"/>
-      <c r="C482" s="15"/>
+      <c r="B482" s="14"/>
+      <c r="C482" s="14"/>
       <c r="E482" s="3" t="str">
         <f>VLOOKUP(D482,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -6174,8 +6194,8 @@
       </c>
     </row>
     <row r="483" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B483" s="15"/>
-      <c r="C483" s="15"/>
+      <c r="B483" s="14"/>
+      <c r="C483" s="14"/>
       <c r="E483" s="3" t="str">
         <f>VLOOKUP(D483,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -6186,8 +6206,8 @@
       </c>
     </row>
     <row r="484" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B484" s="15"/>
-      <c r="C484" s="15"/>
+      <c r="B484" s="14"/>
+      <c r="C484" s="14"/>
       <c r="E484" s="3" t="str">
         <f>VLOOKUP(D484,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -11371,7 +11391,7 @@
   <dimension ref="A1:T130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11379,6 +11399,7 @@
     <col min="2" max="2" width="9.140625" style="4"/>
     <col min="3" max="3" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="11"/>
+    <col min="6" max="6" width="9.140625" style="18"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="19" max="20" width="9.140625" style="4"/>
   </cols>
@@ -11399,7 +11420,7 @@
       <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -11440,11 +11461,12 @@
         <f>IF(OR(B2 &lt; 5, B2 &gt; 6), ROUND(B2 * 2,0)/2, ROUND(B2,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E2" s="12" t="str">
+      <c r="D2"/>
+      <c r="E2" t="str">
         <f>IF(D2 &lt;&gt; "", D2, IF($J$2 = "", "", IF($L$2 = "VU-afronding", C2, IF($L$2 = "hele punten", ROUND(B2,0), IF($L$2 = "halve punten", ROUND(B2 * 2,0)/2, ROUND(B2 * 10,0)/10)))))</f>
         <v/>
       </c>
-      <c r="F2" s="16" t="str">
+      <c r="F2" s="18" t="str">
         <f>IF($L$4 &gt; 0, G2 / $L$4 * 100, "")</f>
         <v/>
       </c>
@@ -11456,15 +11478,15 @@
         <f t="shared" ref="H2:H65" si="0">REPT("*",G2)</f>
         <v/>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13">
         <v>5.5</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="12">
         <v>100</v>
       </c>
       <c r="N2" t="s">
@@ -11491,13 +11513,14 @@
         <f t="shared" ref="C3:C33" si="2">IF(OR(B3 &lt; 5, B3 &gt; 6), ROUND(B3 * 2,0)/2, ROUND(B3,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E3" s="12" t="str">
+      <c r="D3"/>
+      <c r="E3" t="str">
         <f t="shared" ref="E3:E66" si="3">IF(D3 &lt;&gt; "", D3, IF($J$2 = "", "", IF($L$2 = "VU-afronding", C3, IF($L$2 = "hele punten", ROUND(B3,0), IF($L$2 = "halve punten", ROUND(B3 * 2,0)/2, ROUND(B3 * 10,0)/10)))))</f>
         <v/>
       </c>
-      <c r="F3" s="16" t="str">
-        <f t="shared" ref="F3:F66" si="4">IF($L$4 &gt; 0, G3 / $L$4 * 100, "")</f>
-        <v/>
+      <c r="F3" s="18" t="e">
+        <f>IF($L$4 &gt; 0, G3 / $L$4 * 100, "")+F2</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G3">
         <f>COUNTIF(cijfers!D:D, A3)</f>
@@ -11511,11 +11534,11 @@
         <v>12</v>
       </c>
       <c r="S3" s="4" t="e">
-        <f t="shared" ref="S3:S66" si="5">IF(($I$2-A3)/($I$2-$J$2) &lt;= 10/(10-$K$2),10-($I$2-A3)/($I$2-$J$2)*(10-$K$2),0)</f>
+        <f t="shared" ref="S3:S66" si="4">IF(($I$2-A3)/($I$2-$J$2) &lt;= 10/(10-$K$2),10-($I$2-A3)/($I$2-$J$2)*(10-$K$2),0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T3" s="4" t="e">
-        <f t="shared" ref="T3:T66" si="6">IF(($I$2-A3)/($I$2-$J$2) &lt;= 9/(10-$K$2),10-($I$2-A3)/($I$2-$J$2)*(10-$K$2),1)</f>
+        <f t="shared" ref="T3:T66" si="5">IF(($I$2-A3)/($I$2-$J$2) &lt;= 9/(10-$K$2),10-($I$2-A3)/($I$2-$J$2)*(10-$K$2),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11531,13 +11554,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E4" s="12" t="str">
+      <c r="D4"/>
+      <c r="E4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F4" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F4" s="18" t="e">
+        <f t="shared" ref="F4:F67" si="6">IF($L$4 &gt; 0, G4 / $L$4 * 100, "")+F3</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G4">
         <f>COUNTIF(cijfers!D:D, A4)</f>
@@ -11558,11 +11582,11 @@
         <v>13</v>
       </c>
       <c r="S4" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T4" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T4" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11578,13 +11602,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E5" s="12" t="str">
+      <c r="D5"/>
+      <c r="E5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F5" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F5" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G5">
         <f>COUNTIF(cijfers!D:D, A5)</f>
@@ -11605,11 +11630,11 @@
         <v>14</v>
       </c>
       <c r="S5" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T5" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T5" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11625,13 +11650,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E6" s="12" t="str">
+      <c r="D6"/>
+      <c r="E6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F6" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F6" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G6">
         <f>COUNTIF(cijfers!D:D, A6)</f>
@@ -11644,7 +11670,7 @@
       <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="16" t="str">
+      <c r="L6" s="15" t="str">
         <f>IF(L4 &gt; 0, ROUND(L5 / L4 * 100, 0), "")</f>
         <v/>
       </c>
@@ -11652,11 +11678,11 @@
         <v>15</v>
       </c>
       <c r="S6" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T6" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T6" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11672,13 +11698,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E7" s="12" t="str">
+      <c r="D7"/>
+      <c r="E7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F7" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F7" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G7">
         <f>COUNTIF(cijfers!D:D, A7)</f>
@@ -11692,11 +11719,11 @@
         <v>22</v>
       </c>
       <c r="S7" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T7" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T7" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11712,13 +11739,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="12" t="str">
+      <c r="D8"/>
+      <c r="E8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F8" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F8" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G8">
         <f>COUNTIF(cijfers!D:D, A8)</f>
@@ -11735,11 +11763,11 @@
         <v>1</v>
       </c>
       <c r="S8" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T8" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T8" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11755,13 +11783,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E9" s="12" t="str">
+      <c r="D9"/>
+      <c r="E9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F9" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F9" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G9">
         <f>COUNTIF(cijfers!D:D, A9)</f>
@@ -11772,11 +11801,11 @@
         <v/>
       </c>
       <c r="S9" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T9" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11792,13 +11821,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="12" t="str">
+      <c r="D10"/>
+      <c r="E10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F10" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F10" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G10">
         <f>COUNTIF(cijfers!D:D, A10)</f>
@@ -11809,11 +11839,11 @@
         <v/>
       </c>
       <c r="S10" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T10" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11829,13 +11859,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E11" s="12" t="str">
+      <c r="D11"/>
+      <c r="E11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F11" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F11" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G11">
         <f>COUNTIF(cijfers!D:D, A11)</f>
@@ -11846,11 +11877,11 @@
         <v/>
       </c>
       <c r="S11" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T11" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11866,13 +11897,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E12" s="12" t="str">
+      <c r="D12"/>
+      <c r="E12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F12" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F12" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G12">
         <f>COUNTIF(cijfers!D:D, A12)</f>
@@ -11883,11 +11915,11 @@
         <v/>
       </c>
       <c r="S12" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T12" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11903,13 +11935,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E13" s="12" t="str">
+      <c r="D13"/>
+      <c r="E13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F13" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G13">
         <f>COUNTIF(cijfers!D:D, A13)</f>
@@ -11920,11 +11953,11 @@
         <v/>
       </c>
       <c r="S13" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T13" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11940,13 +11973,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E14" s="12" t="str">
+      <c r="D14"/>
+      <c r="E14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F14" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F14" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G14">
         <f>COUNTIF(cijfers!D:D, A14)</f>
@@ -11957,11 +11991,11 @@
         <v/>
       </c>
       <c r="S14" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T14" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11977,13 +12011,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E15" s="12" t="str">
+      <c r="D15"/>
+      <c r="E15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F15" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F15" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G15">
         <f>COUNTIF(cijfers!D:D, A15)</f>
@@ -11994,11 +12029,11 @@
         <v/>
       </c>
       <c r="S15" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T15" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12014,13 +12049,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E16" s="12" t="str">
+      <c r="D16"/>
+      <c r="E16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F16" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F16" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G16">
         <f>COUNTIF(cijfers!D:D, A16)</f>
@@ -12031,11 +12067,11 @@
         <v/>
       </c>
       <c r="S16" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T16" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12051,13 +12087,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E17" s="12" t="str">
+      <c r="D17"/>
+      <c r="E17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F17" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F17" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G17">
         <f>COUNTIF(cijfers!D:D, A17)</f>
@@ -12068,11 +12105,11 @@
         <v/>
       </c>
       <c r="S17" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T17" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12088,13 +12125,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="12" t="str">
+      <c r="D18"/>
+      <c r="E18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F18" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F18" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G18">
         <f>COUNTIF(cijfers!D:D, A18)</f>
@@ -12105,11 +12143,11 @@
         <v/>
       </c>
       <c r="S18" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T18" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T18" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12125,13 +12163,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="12" t="str">
+      <c r="D19"/>
+      <c r="E19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F19" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F19" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G19">
         <f>COUNTIF(cijfers!D:D, A19)</f>
@@ -12142,11 +12181,11 @@
         <v/>
       </c>
       <c r="S19" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12162,13 +12201,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="12" t="str">
+      <c r="D20"/>
+      <c r="E20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F20" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F20" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G20">
         <f>COUNTIF(cijfers!D:D, A20)</f>
@@ -12179,11 +12219,11 @@
         <v/>
       </c>
       <c r="S20" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T20" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T20" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12199,13 +12239,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E21" s="12" t="str">
+      <c r="D21"/>
+      <c r="E21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F21" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F21" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G21">
         <f>COUNTIF(cijfers!D:D, A21)</f>
@@ -12216,11 +12257,11 @@
         <v/>
       </c>
       <c r="S21" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T21" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12236,13 +12277,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="12" t="str">
+      <c r="D22"/>
+      <c r="E22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F22" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F22" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G22">
         <f>COUNTIF(cijfers!D:D, A22)</f>
@@ -12253,11 +12295,11 @@
         <v/>
       </c>
       <c r="S22" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T22" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12273,13 +12315,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="12" t="str">
+      <c r="D23"/>
+      <c r="E23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F23" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F23" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G23">
         <f>COUNTIF(cijfers!D:D, A23)</f>
@@ -12290,11 +12333,11 @@
         <v/>
       </c>
       <c r="S23" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T23" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12310,13 +12353,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="12" t="str">
+      <c r="D24"/>
+      <c r="E24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F24" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F24" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G24">
         <f>COUNTIF(cijfers!D:D, A24)</f>
@@ -12327,11 +12371,11 @@
         <v/>
       </c>
       <c r="S24" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12347,13 +12391,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="12" t="str">
+      <c r="D25"/>
+      <c r="E25" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F25" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F25" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G25">
         <f>COUNTIF(cijfers!D:D, A25)</f>
@@ -12364,11 +12409,11 @@
         <v/>
       </c>
       <c r="S25" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12384,13 +12429,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="12" t="str">
+      <c r="D26"/>
+      <c r="E26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F26" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F26" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G26">
         <f>COUNTIF(cijfers!D:D, A26)</f>
@@ -12401,11 +12447,11 @@
         <v/>
       </c>
       <c r="S26" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T26" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12421,13 +12467,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="12" t="str">
+      <c r="D27"/>
+      <c r="E27" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F27" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F27" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G27">
         <f>COUNTIF(cijfers!D:D, A27)</f>
@@ -12438,11 +12485,11 @@
         <v/>
       </c>
       <c r="S27" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T27" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12458,13 +12505,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="12" t="str">
+      <c r="D28"/>
+      <c r="E28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F28" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F28" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G28">
         <f>COUNTIF(cijfers!D:D, A28)</f>
@@ -12475,11 +12523,11 @@
         <v/>
       </c>
       <c r="S28" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12495,13 +12543,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="12" t="str">
+      <c r="D29"/>
+      <c r="E29" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F29" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F29" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G29">
         <f>COUNTIF(cijfers!D:D, A29)</f>
@@ -12512,11 +12561,11 @@
         <v/>
       </c>
       <c r="S29" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12532,13 +12581,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="12" t="str">
+      <c r="D30"/>
+      <c r="E30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F30" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F30" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G30">
         <f>COUNTIF(cijfers!D:D, A30)</f>
@@ -12549,11 +12599,11 @@
         <v/>
       </c>
       <c r="S30" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T30" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12569,13 +12619,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="12" t="str">
+      <c r="D31"/>
+      <c r="E31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F31" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F31" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G31">
         <f>COUNTIF(cijfers!D:D, A31)</f>
@@ -12586,11 +12637,11 @@
         <v/>
       </c>
       <c r="S31" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T31" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12606,13 +12657,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="12" t="str">
+      <c r="D32"/>
+      <c r="E32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F32" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F32" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G32">
         <f>COUNTIF(cijfers!D:D, A32)</f>
@@ -12623,11 +12675,11 @@
         <v/>
       </c>
       <c r="S32" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T32" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12643,13 +12695,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="12" t="str">
+      <c r="D33"/>
+      <c r="E33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F33" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F33" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G33">
         <f>COUNTIF(cijfers!D:D, A33)</f>
@@ -12660,11 +12713,11 @@
         <v/>
       </c>
       <c r="S33" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T33" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T33" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12680,13 +12733,14 @@
         <f t="shared" ref="C34:C65" si="7">IF(OR(B34 &lt; 5, B34 &gt; 6), ROUND(B34 * 2,0)/2, ROUND(B34,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="12" t="str">
+      <c r="D34"/>
+      <c r="E34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F34" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F34" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G34">
         <f>COUNTIF(cijfers!D:D, A34)</f>
@@ -12697,11 +12751,11 @@
         <v/>
       </c>
       <c r="S34" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T34" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T34" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12717,13 +12771,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="12" t="str">
+      <c r="D35"/>
+      <c r="E35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F35" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F35" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G35">
         <f>COUNTIF(cijfers!D:D, A35)</f>
@@ -12734,11 +12789,11 @@
         <v/>
       </c>
       <c r="S35" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T35" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T35" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12754,13 +12809,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E36" s="12" t="str">
+      <c r="D36"/>
+      <c r="E36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F36" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F36" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G36">
         <f>COUNTIF(cijfers!D:D, A36)</f>
@@ -12771,11 +12827,11 @@
         <v/>
       </c>
       <c r="S36" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T36" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T36" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12791,13 +12847,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E37" s="12" t="str">
+      <c r="D37"/>
+      <c r="E37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F37" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F37" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G37">
         <f>COUNTIF(cijfers!D:D, A37)</f>
@@ -12808,11 +12865,11 @@
         <v/>
       </c>
       <c r="S37" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T37" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T37" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12828,13 +12885,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="12" t="str">
+      <c r="D38"/>
+      <c r="E38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F38" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F38" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G38">
         <f>COUNTIF(cijfers!D:D, A38)</f>
@@ -12845,11 +12903,11 @@
         <v/>
       </c>
       <c r="S38" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T38" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T38" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12865,13 +12923,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="12" t="str">
+      <c r="D39"/>
+      <c r="E39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F39" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F39" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G39">
         <f>COUNTIF(cijfers!D:D, A39)</f>
@@ -12882,11 +12941,11 @@
         <v/>
       </c>
       <c r="S39" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T39" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T39" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12902,13 +12961,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="12" t="str">
+      <c r="D40"/>
+      <c r="E40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F40" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F40" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G40">
         <f>COUNTIF(cijfers!D:D, A40)</f>
@@ -12919,11 +12979,11 @@
         <v/>
       </c>
       <c r="S40" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T40" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T40" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12939,13 +12999,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="12" t="str">
+      <c r="D41"/>
+      <c r="E41" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F41" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F41" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G41">
         <f>COUNTIF(cijfers!D:D, A41)</f>
@@ -12956,11 +13017,11 @@
         <v/>
       </c>
       <c r="S41" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T41" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T41" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12976,13 +13037,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E42" s="12" t="str">
+      <c r="D42"/>
+      <c r="E42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F42" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F42" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G42">
         <f>COUNTIF(cijfers!D:D, A42)</f>
@@ -12993,11 +13055,11 @@
         <v/>
       </c>
       <c r="S42" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T42" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T42" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13013,13 +13075,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E43" s="12" t="str">
+      <c r="D43"/>
+      <c r="E43" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F43" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F43" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G43">
         <f>COUNTIF(cijfers!D:D, A43)</f>
@@ -13030,11 +13093,11 @@
         <v/>
       </c>
       <c r="S43" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T43" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T43" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13050,13 +13113,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E44" s="12" t="str">
+      <c r="D44"/>
+      <c r="E44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F44" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F44" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G44">
         <f>COUNTIF(cijfers!D:D, A44)</f>
@@ -13067,11 +13131,11 @@
         <v/>
       </c>
       <c r="S44" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T44" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T44" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13087,13 +13151,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E45" s="12" t="str">
+      <c r="D45"/>
+      <c r="E45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F45" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F45" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G45">
         <f>COUNTIF(cijfers!D:D, A45)</f>
@@ -13104,11 +13169,11 @@
         <v/>
       </c>
       <c r="S45" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T45" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T45" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13124,13 +13189,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E46" s="12" t="str">
+      <c r="D46"/>
+      <c r="E46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F46" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F46" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G46">
         <f>COUNTIF(cijfers!D:D, A46)</f>
@@ -13141,11 +13207,11 @@
         <v/>
       </c>
       <c r="S46" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T46" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T46" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13161,13 +13227,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E47" s="12" t="str">
+      <c r="D47"/>
+      <c r="E47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F47" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F47" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G47">
         <f>COUNTIF(cijfers!D:D, A47)</f>
@@ -13178,11 +13245,11 @@
         <v/>
       </c>
       <c r="S47" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T47" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T47" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13198,13 +13265,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E48" s="12" t="str">
+      <c r="D48"/>
+      <c r="E48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F48" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F48" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G48">
         <f>COUNTIF(cijfers!D:D, A48)</f>
@@ -13215,11 +13283,11 @@
         <v/>
       </c>
       <c r="S48" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T48" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T48" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13235,13 +13303,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="12" t="str">
+      <c r="D49"/>
+      <c r="E49" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F49" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F49" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G49">
         <f>COUNTIF(cijfers!D:D, A49)</f>
@@ -13252,11 +13321,11 @@
         <v/>
       </c>
       <c r="S49" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T49" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T49" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13272,13 +13341,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E50" s="12" t="str">
+      <c r="D50"/>
+      <c r="E50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F50" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F50" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G50">
         <f>COUNTIF(cijfers!D:D, A50)</f>
@@ -13289,11 +13359,11 @@
         <v/>
       </c>
       <c r="S50" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T50" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T50" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13309,13 +13379,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E51" s="12" t="str">
+      <c r="D51"/>
+      <c r="E51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F51" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F51" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G51">
         <f>COUNTIF(cijfers!D:D, A51)</f>
@@ -13326,11 +13397,11 @@
         <v/>
       </c>
       <c r="S51" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T51" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T51" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13346,13 +13417,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E52" s="12" t="str">
+      <c r="D52"/>
+      <c r="E52" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F52" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F52" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G52">
         <f>COUNTIF(cijfers!D:D, A52)</f>
@@ -13363,11 +13435,11 @@
         <v/>
       </c>
       <c r="S52" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T52" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T52" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13383,13 +13455,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E53" s="12" t="str">
+      <c r="D53"/>
+      <c r="E53" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F53" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F53" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G53">
         <f>COUNTIF(cijfers!D:D, A53)</f>
@@ -13400,11 +13473,11 @@
         <v/>
       </c>
       <c r="S53" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T53" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T53" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13420,13 +13493,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E54" s="12" t="str">
+      <c r="D54"/>
+      <c r="E54" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F54" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F54" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G54">
         <f>COUNTIF(cijfers!D:D, A54)</f>
@@ -13437,11 +13511,11 @@
         <v/>
       </c>
       <c r="S54" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T54" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T54" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13457,13 +13531,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E55" s="12" t="str">
+      <c r="D55"/>
+      <c r="E55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F55" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F55" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G55">
         <f>COUNTIF(cijfers!D:D, A55)</f>
@@ -13474,11 +13549,11 @@
         <v/>
       </c>
       <c r="S55" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T55" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T55" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13494,13 +13569,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E56" s="12" t="str">
+      <c r="D56"/>
+      <c r="E56" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F56" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F56" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G56">
         <f>COUNTIF(cijfers!D:D, A56)</f>
@@ -13511,11 +13587,11 @@
         <v/>
       </c>
       <c r="S56" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T56" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T56" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13531,13 +13607,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E57" s="12" t="str">
+      <c r="D57"/>
+      <c r="E57" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F57" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F57" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G57">
         <f>COUNTIF(cijfers!D:D, A57)</f>
@@ -13548,11 +13625,11 @@
         <v/>
       </c>
       <c r="S57" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T57" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T57" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13568,13 +13645,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E58" s="12" t="str">
+      <c r="D58"/>
+      <c r="E58" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F58" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F58" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G58">
         <f>COUNTIF(cijfers!D:D, A58)</f>
@@ -13585,11 +13663,11 @@
         <v/>
       </c>
       <c r="S58" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T58" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T58" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13605,13 +13683,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E59" s="12" t="str">
+      <c r="D59"/>
+      <c r="E59" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F59" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F59" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G59">
         <f>COUNTIF(cijfers!D:D, A59)</f>
@@ -13622,11 +13701,11 @@
         <v/>
       </c>
       <c r="S59" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T59" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T59" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13642,13 +13721,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E60" s="12" t="str">
+      <c r="D60"/>
+      <c r="E60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F60" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F60" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G60">
         <f>COUNTIF(cijfers!D:D, A60)</f>
@@ -13659,11 +13739,11 @@
         <v/>
       </c>
       <c r="S60" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T60" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T60" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13679,13 +13759,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E61" s="12" t="str">
+      <c r="D61"/>
+      <c r="E61" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F61" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F61" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G61">
         <f>COUNTIF(cijfers!D:D, A61)</f>
@@ -13696,11 +13777,11 @@
         <v/>
       </c>
       <c r="S61" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T61" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T61" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13716,13 +13797,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E62" s="12" t="str">
+      <c r="D62"/>
+      <c r="E62" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F62" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F62" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G62">
         <f>COUNTIF(cijfers!D:D, A62)</f>
@@ -13733,11 +13815,11 @@
         <v/>
       </c>
       <c r="S62" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T62" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T62" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13753,13 +13835,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E63" s="12" t="str">
+      <c r="D63"/>
+      <c r="E63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F63" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F63" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G63">
         <f>COUNTIF(cijfers!D:D, A63)</f>
@@ -13770,11 +13853,11 @@
         <v/>
       </c>
       <c r="S63" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T63" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T63" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13790,13 +13873,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E64" s="12" t="str">
+      <c r="D64"/>
+      <c r="E64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F64" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F64" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G64">
         <f>COUNTIF(cijfers!D:D, A64)</f>
@@ -13807,11 +13891,11 @@
         <v/>
       </c>
       <c r="S64" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T64" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T64" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13827,13 +13911,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E65" s="12" t="str">
+      <c r="D65"/>
+      <c r="E65" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F65" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F65" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G65">
         <f>COUNTIF(cijfers!D:D, A65)</f>
@@ -13844,11 +13929,11 @@
         <v/>
       </c>
       <c r="S65" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T65" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T65" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13864,13 +13949,14 @@
         <f t="shared" ref="C66:C97" si="8">IF(OR(B66 &lt; 5, B66 &gt; 6), ROUND(B66 * 2,0)/2, ROUND(B66,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E66" s="12" t="str">
+      <c r="D66"/>
+      <c r="E66" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F66" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F66" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G66">
         <f>COUNTIF(cijfers!D:D, A66)</f>
@@ -13881,11 +13967,11 @@
         <v/>
       </c>
       <c r="S66" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T66" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T66" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13901,13 +13987,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E67" s="12" t="str">
+      <c r="D67"/>
+      <c r="E67" t="str">
         <f t="shared" ref="E67:E102" si="11">IF(D67 &lt;&gt; "", D67, IF($J$2 = "", "", IF($L$2 = "VU-afronding", C67, IF($L$2 = "hele punten", ROUND(B67,0), IF($L$2 = "halve punten", ROUND(B67 * 2,0)/2, ROUND(B67 * 10,0)/10)))))</f>
         <v/>
       </c>
-      <c r="F67" s="16" t="str">
-        <f t="shared" ref="F67:F102" si="12">IF($L$4 &gt; 0, G67 / $L$4 * 100, "")</f>
-        <v/>
+      <c r="F67" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G67">
         <f>COUNTIF(cijfers!D:D, A67)</f>
@@ -13918,11 +14005,11 @@
         <v/>
       </c>
       <c r="S67" s="4" t="e">
-        <f t="shared" ref="S67:S102" si="13">IF(($I$2-A67)/($I$2-$J$2) &lt;= 10/(10-$K$2),10-($I$2-A67)/($I$2-$J$2)*(10-$K$2),0)</f>
+        <f t="shared" ref="S67:S102" si="12">IF(($I$2-A67)/($I$2-$J$2) &lt;= 10/(10-$K$2),10-($I$2-A67)/($I$2-$J$2)*(10-$K$2),0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T67" s="4" t="e">
-        <f t="shared" ref="T67:T102" si="14">IF(($I$2-A67)/($I$2-$J$2) &lt;= 9/(10-$K$2),10-($I$2-A67)/($I$2-$J$2)*(10-$K$2),1)</f>
+        <f t="shared" ref="T67:T102" si="13">IF(($I$2-A67)/($I$2-$J$2) &lt;= 9/(10-$K$2),10-($I$2-A67)/($I$2-$J$2)*(10-$K$2),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13938,13 +14025,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E68" s="12" t="str">
+      <c r="D68"/>
+      <c r="E68" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F68" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F68" s="18" t="e">
+        <f t="shared" ref="F68:F130" si="14">IF($L$4 &gt; 0, G68 / $L$4 * 100, "")+F67</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G68">
         <f>COUNTIF(cijfers!D:D, A68)</f>
@@ -13955,11 +14043,11 @@
         <v/>
       </c>
       <c r="S68" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T68" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T68" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13975,13 +14063,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E69" s="12" t="str">
+      <c r="D69"/>
+      <c r="E69" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F69" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F69" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G69">
         <f>COUNTIF(cijfers!D:D, A69)</f>
@@ -13992,11 +14081,11 @@
         <v/>
       </c>
       <c r="S69" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T69" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T69" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14012,13 +14101,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E70" s="12" t="str">
+      <c r="D70"/>
+      <c r="E70" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F70" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F70" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G70">
         <f>COUNTIF(cijfers!D:D, A70)</f>
@@ -14029,11 +14119,11 @@
         <v/>
       </c>
       <c r="S70" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T70" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T70" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14049,13 +14139,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E71" s="12" t="str">
+      <c r="D71"/>
+      <c r="E71" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F71" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F71" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G71">
         <f>COUNTIF(cijfers!D:D, A71)</f>
@@ -14066,11 +14157,11 @@
         <v/>
       </c>
       <c r="S71" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T71" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T71" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14086,13 +14177,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E72" s="12" t="str">
+      <c r="D72"/>
+      <c r="E72" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F72" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F72" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G72">
         <f>COUNTIF(cijfers!D:D, A72)</f>
@@ -14103,11 +14195,11 @@
         <v/>
       </c>
       <c r="S72" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T72" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T72" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14123,13 +14215,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E73" s="12" t="str">
+      <c r="D73"/>
+      <c r="E73" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F73" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F73" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G73">
         <f>COUNTIF(cijfers!D:D, A73)</f>
@@ -14140,11 +14233,11 @@
         <v/>
       </c>
       <c r="S73" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T73" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T73" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14160,13 +14253,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E74" s="12" t="str">
+      <c r="D74"/>
+      <c r="E74" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F74" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F74" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G74">
         <f>COUNTIF(cijfers!D:D, A74)</f>
@@ -14177,11 +14271,11 @@
         <v/>
       </c>
       <c r="S74" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T74" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T74" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14197,13 +14291,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E75" s="12" t="str">
+      <c r="D75"/>
+      <c r="E75" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F75" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F75" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G75">
         <f>COUNTIF(cijfers!D:D, A75)</f>
@@ -14214,11 +14309,11 @@
         <v/>
       </c>
       <c r="S75" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T75" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T75" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14234,13 +14329,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E76" s="12" t="str">
+      <c r="D76"/>
+      <c r="E76" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F76" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F76" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G76">
         <f>COUNTIF(cijfers!D:D, A76)</f>
@@ -14251,11 +14347,11 @@
         <v/>
       </c>
       <c r="S76" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T76" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T76" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14271,13 +14367,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E77" s="12" t="str">
+      <c r="D77"/>
+      <c r="E77" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F77" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F77" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G77">
         <f>COUNTIF(cijfers!D:D, A77)</f>
@@ -14288,11 +14385,11 @@
         <v/>
       </c>
       <c r="S77" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T77" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T77" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14308,13 +14405,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E78" s="12" t="str">
+      <c r="D78"/>
+      <c r="E78" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F78" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F78" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G78">
         <f>COUNTIF(cijfers!D:D, A78)</f>
@@ -14325,11 +14423,11 @@
         <v/>
       </c>
       <c r="S78" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T78" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T78" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14345,13 +14443,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E79" s="12" t="str">
+      <c r="D79"/>
+      <c r="E79" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F79" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F79" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G79">
         <f>COUNTIF(cijfers!D:D, A79)</f>
@@ -14362,11 +14461,11 @@
         <v/>
       </c>
       <c r="S79" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T79" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T79" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14382,13 +14481,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E80" s="12" t="str">
+      <c r="D80"/>
+      <c r="E80" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F80" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F80" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G80">
         <f>COUNTIF(cijfers!D:D, A80)</f>
@@ -14399,11 +14499,11 @@
         <v/>
       </c>
       <c r="S80" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T80" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T80" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14419,13 +14519,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E81" s="12" t="str">
+      <c r="D81"/>
+      <c r="E81" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F81" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F81" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G81">
         <f>COUNTIF(cijfers!D:D, A81)</f>
@@ -14436,11 +14537,11 @@
         <v/>
       </c>
       <c r="S81" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T81" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T81" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14456,13 +14557,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E82" s="12" t="str">
+      <c r="D82"/>
+      <c r="E82" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F82" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F82" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G82">
         <f>COUNTIF(cijfers!D:D, A82)</f>
@@ -14473,11 +14575,11 @@
         <v/>
       </c>
       <c r="S82" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T82" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T82" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14493,13 +14595,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E83" s="12" t="str">
+      <c r="D83"/>
+      <c r="E83" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F83" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F83" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G83">
         <f>COUNTIF(cijfers!D:D, A83)</f>
@@ -14510,11 +14613,11 @@
         <v/>
       </c>
       <c r="S83" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T83" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T83" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14530,13 +14633,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E84" s="12" t="str">
+      <c r="D84"/>
+      <c r="E84" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F84" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F84" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G84">
         <f>COUNTIF(cijfers!D:D, A84)</f>
@@ -14547,11 +14651,11 @@
         <v/>
       </c>
       <c r="S84" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T84" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T84" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14567,13 +14671,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E85" s="12" t="str">
+      <c r="D85"/>
+      <c r="E85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F85" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F85" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G85">
         <f>COUNTIF(cijfers!D:D, A85)</f>
@@ -14584,11 +14689,11 @@
         <v/>
       </c>
       <c r="S85" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T85" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T85" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14604,13 +14709,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E86" s="12" t="str">
+      <c r="D86"/>
+      <c r="E86" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F86" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F86" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G86">
         <f>COUNTIF(cijfers!D:D, A86)</f>
@@ -14621,11 +14727,11 @@
         <v/>
       </c>
       <c r="S86" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T86" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T86" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14641,13 +14747,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E87" s="12" t="str">
+      <c r="D87"/>
+      <c r="E87" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F87" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F87" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G87">
         <f>COUNTIF(cijfers!D:D, A87)</f>
@@ -14658,11 +14765,11 @@
         <v/>
       </c>
       <c r="S87" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T87" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T87" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14678,13 +14785,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E88" s="12" t="str">
+      <c r="D88"/>
+      <c r="E88" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F88" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F88" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G88">
         <f>COUNTIF(cijfers!D:D, A88)</f>
@@ -14695,11 +14803,11 @@
         <v/>
       </c>
       <c r="S88" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T88" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T88" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14715,13 +14823,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E89" s="12" t="str">
+      <c r="D89"/>
+      <c r="E89" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F89" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F89" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G89">
         <f>COUNTIF(cijfers!D:D, A89)</f>
@@ -14732,11 +14841,11 @@
         <v/>
       </c>
       <c r="S89" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T89" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T89" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14752,13 +14861,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E90" s="12" t="str">
+      <c r="D90"/>
+      <c r="E90" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F90" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F90" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G90">
         <f>COUNTIF(cijfers!D:D, A90)</f>
@@ -14769,11 +14879,11 @@
         <v/>
       </c>
       <c r="S90" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T90" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T90" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14789,13 +14899,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E91" s="12" t="str">
+      <c r="D91"/>
+      <c r="E91" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F91" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F91" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G91">
         <f>COUNTIF(cijfers!D:D, A91)</f>
@@ -14806,11 +14917,11 @@
         <v/>
       </c>
       <c r="S91" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T91" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T91" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14826,13 +14937,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E92" s="12" t="str">
+      <c r="D92"/>
+      <c r="E92" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F92" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F92" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G92">
         <f>COUNTIF(cijfers!D:D, A92)</f>
@@ -14843,11 +14955,11 @@
         <v/>
       </c>
       <c r="S92" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T92" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T92" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14863,13 +14975,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E93" s="12" t="str">
+      <c r="D93"/>
+      <c r="E93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F93" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F93" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G93">
         <f>COUNTIF(cijfers!D:D, A93)</f>
@@ -14880,11 +14993,11 @@
         <v/>
       </c>
       <c r="S93" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T93" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T93" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14900,13 +15013,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E94" s="12" t="str">
+      <c r="D94"/>
+      <c r="E94" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F94" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F94" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G94">
         <f>COUNTIF(cijfers!D:D, A94)</f>
@@ -14917,11 +15031,11 @@
         <v/>
       </c>
       <c r="S94" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T94" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T94" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14937,13 +15051,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E95" s="12" t="str">
+      <c r="D95"/>
+      <c r="E95" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F95" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F95" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G95">
         <f>COUNTIF(cijfers!D:D, A95)</f>
@@ -14954,11 +15069,11 @@
         <v/>
       </c>
       <c r="S95" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T95" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T95" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14974,13 +15089,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E96" s="12" t="str">
+      <c r="D96"/>
+      <c r="E96" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F96" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F96" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G96">
         <f>COUNTIF(cijfers!D:D, A96)</f>
@@ -14991,11 +15107,11 @@
         <v/>
       </c>
       <c r="S96" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T96" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T96" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15011,13 +15127,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E97" s="12" t="str">
+      <c r="D97"/>
+      <c r="E97" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F97" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F97" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G97">
         <f>COUNTIF(cijfers!D:D, A97)</f>
@@ -15028,11 +15145,11 @@
         <v/>
       </c>
       <c r="S97" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T97" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T97" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15048,13 +15165,14 @@
         <f>IF(OR(B98 &lt; 5, B98 &gt; 6), ROUND(B98 * 2,0)/2, ROUND(B98,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E98" s="12" t="str">
+      <c r="D98"/>
+      <c r="E98" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F98" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F98" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G98">
         <f>COUNTIF(cijfers!D:D, A98)</f>
@@ -15065,11 +15183,11 @@
         <v/>
       </c>
       <c r="S98" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T98" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T98" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15085,13 +15203,14 @@
         <f>IF(OR(B99 &lt; 5, B99 &gt; 6), ROUND(B99 * 2,0)/2, ROUND(B99,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E99" s="12" t="str">
+      <c r="D99"/>
+      <c r="E99" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F99" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F99" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G99">
         <f>COUNTIF(cijfers!D:D, A99)</f>
@@ -15102,11 +15221,11 @@
         <v/>
       </c>
       <c r="S99" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T99" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T99" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15122,13 +15241,14 @@
         <f>IF(OR(B100 &lt; 5, B100 &gt; 6), ROUND(B100 * 2,0)/2, ROUND(B100,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E100" s="12" t="str">
+      <c r="D100"/>
+      <c r="E100" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F100" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F100" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G100">
         <f>COUNTIF(cijfers!D:D, A100)</f>
@@ -15139,11 +15259,11 @@
         <v/>
       </c>
       <c r="S100" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T100" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T100" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15159,13 +15279,14 @@
         <f>IF(OR(B101 &lt; 5, B101 &gt; 6), ROUND(B101 * 2,0)/2, ROUND(B101,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E101" s="12" t="str">
+      <c r="D101"/>
+      <c r="E101" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F101" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F101" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G101">
         <f>COUNTIF(cijfers!D:D, A101)</f>
@@ -15176,11 +15297,11 @@
         <v/>
       </c>
       <c r="S101" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T101" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T101" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15196,13 +15317,14 @@
         <f>IF(OR(B102 &lt; 5, B102 &gt; 6), ROUND(B102 * 2,0)/2, ROUND(B102,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E102" s="12" t="str">
+      <c r="D102"/>
+      <c r="E102" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F102" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F102" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G102">
         <f>COUNTIF(cijfers!D:D, A102)</f>
@@ -15213,11 +15335,11 @@
         <v/>
       </c>
       <c r="S102" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T102" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T102" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15233,13 +15355,14 @@
         <f t="shared" ref="C103:C130" si="16">IF(OR(B103 &lt; 5, B103 &gt; 6), ROUND(B103 * 2,0)/2, ROUND(B103,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E103" s="12" t="str">
+      <c r="D103"/>
+      <c r="E103" t="str">
         <f t="shared" ref="E103:E130" si="17">IF(D103 &lt;&gt; "", D103, IF($J$2 = "", "", IF($L$2 = "VU-afronding", C103, IF($L$2 = "hele punten", ROUND(B103,0), IF($L$2 = "halve punten", ROUND(B103 * 2,0)/2, ROUND(B103 * 10,0)/10)))))</f>
         <v/>
       </c>
-      <c r="F103" s="16" t="str">
-        <f t="shared" ref="F103:F130" si="18">IF($L$4 &gt; 0, G103 / $L$4 * 100, "")</f>
-        <v/>
+      <c r="F103" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G103">
         <f>COUNTIF(cijfers!D:D, A103)</f>
@@ -15258,13 +15381,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E104" s="12" t="str">
+      <c r="D104"/>
+      <c r="E104" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F104" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F104" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G104">
         <f>COUNTIF(cijfers!D:D, A104)</f>
@@ -15283,13 +15407,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E105" s="12" t="str">
+      <c r="D105"/>
+      <c r="E105" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F105" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F105" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G105">
         <f>COUNTIF(cijfers!D:D, A105)</f>
@@ -15308,13 +15433,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E106" s="12" t="str">
+      <c r="D106"/>
+      <c r="E106" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F106" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F106" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G106">
         <f>COUNTIF(cijfers!D:D, A106)</f>
@@ -15333,13 +15459,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E107" s="12" t="str">
+      <c r="D107"/>
+      <c r="E107" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F107" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F107" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G107">
         <f>COUNTIF(cijfers!D:D, A107)</f>
@@ -15358,13 +15485,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E108" s="12" t="str">
+      <c r="D108"/>
+      <c r="E108" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F108" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F108" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G108">
         <f>COUNTIF(cijfers!D:D, A108)</f>
@@ -15383,13 +15511,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E109" s="12" t="str">
+      <c r="D109"/>
+      <c r="E109" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F109" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F109" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G109">
         <f>COUNTIF(cijfers!D:D, A109)</f>
@@ -15408,13 +15537,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E110" s="12" t="str">
+      <c r="D110"/>
+      <c r="E110" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F110" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F110" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G110">
         <f>COUNTIF(cijfers!D:D, A110)</f>
@@ -15433,13 +15563,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E111" s="12" t="str">
+      <c r="D111"/>
+      <c r="E111" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F111" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F111" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G111">
         <f>COUNTIF(cijfers!D:D, A111)</f>
@@ -15458,13 +15589,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E112" s="12" t="str">
+      <c r="D112"/>
+      <c r="E112" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F112" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F112" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G112">
         <f>COUNTIF(cijfers!D:D, A112)</f>
@@ -15483,13 +15615,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E113" s="12" t="str">
+      <c r="D113"/>
+      <c r="E113" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F113" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F113" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G113">
         <f>COUNTIF(cijfers!D:D, A113)</f>
@@ -15508,13 +15641,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E114" s="12" t="str">
+      <c r="D114"/>
+      <c r="E114" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F114" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F114" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G114">
         <f>COUNTIF(cijfers!D:D, A114)</f>
@@ -15533,13 +15667,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E115" s="12" t="str">
+      <c r="D115"/>
+      <c r="E115" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F115" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F115" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G115">
         <f>COUNTIF(cijfers!D:D, A115)</f>
@@ -15558,13 +15693,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E116" s="12" t="str">
+      <c r="D116"/>
+      <c r="E116" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F116" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F116" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G116">
         <f>COUNTIF(cijfers!D:D, A116)</f>
@@ -15583,13 +15719,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E117" s="12" t="str">
+      <c r="D117"/>
+      <c r="E117" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F117" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F117" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G117">
         <f>COUNTIF(cijfers!D:D, A117)</f>
@@ -15608,13 +15745,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E118" s="12" t="str">
+      <c r="D118"/>
+      <c r="E118" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F118" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F118" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G118">
         <f>COUNTIF(cijfers!D:D, A118)</f>
@@ -15633,13 +15771,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E119" s="12" t="str">
+      <c r="D119"/>
+      <c r="E119" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F119" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F119" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G119">
         <f>COUNTIF(cijfers!D:D, A119)</f>
@@ -15658,13 +15797,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E120" s="12" t="str">
+      <c r="D120"/>
+      <c r="E120" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F120" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F120" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G120">
         <f>COUNTIF(cijfers!D:D, A120)</f>
@@ -15683,13 +15823,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E121" s="12" t="str">
+      <c r="D121"/>
+      <c r="E121" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F121" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F121" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G121">
         <f>COUNTIF(cijfers!D:D, A121)</f>
@@ -15708,13 +15849,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E122" s="12" t="str">
+      <c r="D122"/>
+      <c r="E122" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F122" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F122" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G122">
         <f>COUNTIF(cijfers!D:D, A122)</f>
@@ -15733,13 +15875,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E123" s="12" t="str">
+      <c r="D123"/>
+      <c r="E123" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F123" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F123" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G123">
         <f>COUNTIF(cijfers!D:D, A123)</f>
@@ -15758,13 +15901,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E124" s="12" t="str">
+      <c r="D124"/>
+      <c r="E124" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F124" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F124" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G124">
         <f>COUNTIF(cijfers!D:D, A124)</f>
@@ -15783,13 +15927,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E125" s="12" t="str">
+      <c r="D125"/>
+      <c r="E125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F125" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F125" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G125">
         <f>COUNTIF(cijfers!D:D, A125)</f>
@@ -15808,13 +15953,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E126" s="12" t="str">
+      <c r="D126"/>
+      <c r="E126" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F126" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F126" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G126">
         <f>COUNTIF(cijfers!D:D, A126)</f>
@@ -15833,13 +15979,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E127" s="12" t="str">
+      <c r="D127"/>
+      <c r="E127" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F127" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F127" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G127">
         <f>COUNTIF(cijfers!D:D, A127)</f>
@@ -15858,13 +16005,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E128" s="12" t="str">
+      <c r="D128"/>
+      <c r="E128" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F128" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F128" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G128">
         <f>COUNTIF(cijfers!D:D, A128)</f>
@@ -15883,13 +16031,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E129" s="12" t="str">
+      <c r="D129"/>
+      <c r="E129" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F129" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F129" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G129">
         <f>COUNTIF(cijfers!D:D, A129)</f>
@@ -15908,13 +16057,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E130" s="12" t="str">
+      <c r="D130"/>
+      <c r="E130" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F130" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F130" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G130">
         <f>COUNTIF(cijfers!D:D, A130)</f>
@@ -15923,6 +16073,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
+  <conditionalFormatting sqref="A2:A130">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$A2&gt;$I$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:G130">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$A2&gt;$I$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C130">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$A2&gt;$I$2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2">
       <formula1>$N$2:$N$10</formula1>
